--- a/APQM Gantt.xlsx
+++ b/APQM Gantt.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="239">
   <si>
     <t>Plan</t>
   </si>
@@ -904,6 +904,12 @@
   <si>
     <t>Add LN column to BOM Screen</t>
   </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Download RFQ's Attachments do not work in Mozilla Firefox</t>
+  </si>
 </sst>
 </file>
 
@@ -912,7 +918,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1070,12 +1076,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1427,38 +1427,38 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4246,10 +4246,10 @@
   <dimension ref="A2:LK194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="IZ175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="J178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
+      <selection pane="bottomRight" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -4266,11 +4266,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:323" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4278,9 +4278,9 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
@@ -4312,9 +4312,9 @@
       </c>
     </row>
     <row r="4" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="44"/>
       <c r="E4" s="32"/>
       <c r="F4" s="18"/>
@@ -13245,11 +13245,11 @@
       <c r="LK69" s="28"/>
     </row>
     <row r="70" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="29"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -14397,10 +14397,10 @@
       <c r="C80" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D80" s="60" t="s">
+      <c r="D80" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="E80" s="59"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="5">
@@ -15018,11 +15018,11 @@
       <c r="LK85" s="28"/>
     </row>
     <row r="86" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="29"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -19299,11 +19299,11 @@
       <c r="LK124" s="28"/>
     </row>
     <row r="125" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="67" t="s">
+      <c r="A125" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="29"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -21848,7 +21848,7 @@
       <c r="B148" s="26">
         <v>2</v>
       </c>
-      <c r="C148" s="61" t="s">
+      <c r="C148" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D148" s="29">
@@ -23616,10 +23616,10 @@
       <c r="A164" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B164" s="67" t="s">
+      <c r="B164" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C164" s="67"/>
+      <c r="C164" s="66"/>
       <c r="D164" s="29"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
@@ -23831,7 +23831,7 @@
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="53" t="s">
+      <c r="C166" s="55" t="s">
         <v>201</v>
       </c>
       <c r="D166" s="29"/>
@@ -23944,7 +23944,7 @@
       <c r="B167" s="26">
         <v>5</v>
       </c>
-      <c r="C167" s="53" t="s">
+      <c r="C167" s="55" t="s">
         <v>223</v>
       </c>
       <c r="D167" s="29"/>
@@ -24054,7 +24054,7 @@
       <c r="B168" s="26">
         <v>5</v>
       </c>
-      <c r="C168" s="58" t="s">
+      <c r="C168" s="68" t="s">
         <v>208</v>
       </c>
       <c r="D168" s="29"/>
@@ -24167,7 +24167,7 @@
       <c r="B169" s="26">
         <v>5</v>
       </c>
-      <c r="C169" s="58" t="s">
+      <c r="C169" s="68" t="s">
         <v>209</v>
       </c>
       <c r="D169" s="29"/>
@@ -24280,7 +24280,7 @@
       <c r="B170" s="26">
         <v>5</v>
       </c>
-      <c r="C170" s="58" t="s">
+      <c r="C170" s="68" t="s">
         <v>210</v>
       </c>
       <c r="D170" s="29"/>
@@ -24393,7 +24393,7 @@
       <c r="B171" s="26">
         <v>5</v>
       </c>
-      <c r="C171" s="58" t="s">
+      <c r="C171" s="68" t="s">
         <v>216</v>
       </c>
       <c r="D171" s="29"/>
@@ -24506,7 +24506,7 @@
       <c r="B172" s="26">
         <v>5</v>
       </c>
-      <c r="C172" s="58" t="s">
+      <c r="C172" s="68" t="s">
         <v>215</v>
       </c>
       <c r="D172" s="29"/>
@@ -24617,7 +24617,7 @@
       <c r="B173" s="26">
         <v>5</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="68" t="s">
         <v>217</v>
       </c>
       <c r="D173" s="29"/>
@@ -24730,7 +24730,7 @@
       <c r="B174" s="26">
         <v>5</v>
       </c>
-      <c r="C174" s="58" t="s">
+      <c r="C174" s="68" t="s">
         <v>219</v>
       </c>
       <c r="D174" s="29"/>
@@ -24842,7 +24842,7 @@
       <c r="B175" s="26">
         <v>5</v>
       </c>
-      <c r="C175" s="58" t="s">
+      <c r="C175" s="68" t="s">
         <v>218</v>
       </c>
       <c r="D175" s="29"/>
@@ -24954,7 +24954,7 @@
       <c r="B176" s="26">
         <v>5</v>
       </c>
-      <c r="C176" s="58" t="s">
+      <c r="C176" s="68" t="s">
         <v>220</v>
       </c>
       <c r="D176" s="29"/>
@@ -25067,7 +25067,7 @@
       <c r="B177" s="26">
         <v>5</v>
       </c>
-      <c r="C177" s="53" t="s">
+      <c r="C177" s="55" t="s">
         <v>213</v>
       </c>
       <c r="D177" s="29"/>
@@ -25146,7 +25146,7 @@
       <c r="HQ177" s="28"/>
       <c r="HW177" s="28"/>
       <c r="HX177" s="28"/>
-      <c r="HY177" s="59"/>
+      <c r="HY177" s="58"/>
       <c r="ID177" s="28"/>
       <c r="IE177" s="28"/>
       <c r="IK177" s="28"/>
@@ -25180,7 +25180,7 @@
       <c r="B178" s="26">
         <v>5</v>
       </c>
-      <c r="C178" s="53" t="s">
+      <c r="C178" s="55" t="s">
         <v>211</v>
       </c>
       <c r="D178" s="29"/>
@@ -25293,7 +25293,7 @@
       <c r="B179" s="26">
         <v>5</v>
       </c>
-      <c r="C179" s="53" t="s">
+      <c r="C179" s="55" t="s">
         <v>214</v>
       </c>
       <c r="D179" s="29"/>
@@ -25406,7 +25406,7 @@
       <c r="B180" s="26">
         <v>5</v>
       </c>
-      <c r="C180" s="53" t="s">
+      <c r="C180" s="55" t="s">
         <v>221</v>
       </c>
       <c r="D180" s="29"/>
@@ -25519,7 +25519,7 @@
       <c r="B181" s="26">
         <v>5</v>
       </c>
-      <c r="C181" s="53" t="s">
+      <c r="C181" s="55" t="s">
         <v>222</v>
       </c>
       <c r="D181" s="29"/>
@@ -25644,7 +25644,7 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N182" s="28"/>
       <c r="O182" s="28"/>
@@ -27241,7 +27241,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27321,7 +27321,7 @@
       <c r="D6" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="60"/>
       <c r="AO6" s="35" t="s">
         <v>59</v>
       </c>
@@ -27470,7 +27470,19 @@
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="64">
+        <v>41810</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
@@ -27486,11 +27498,11 @@
       <c r="A17" s="36">
         <v>13</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="64"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">

--- a/APQM Gantt.xlsx
+++ b/APQM Gantt.xlsx
@@ -872,9 +872,6 @@
     <t>New tasks added since May</t>
   </si>
   <si>
-    <t>Ordered by Actual Start. LMD: 6/9/2014</t>
-  </si>
-  <si>
     <t>At the end</t>
   </si>
   <si>
@@ -903,6 +900,9 @@
   </si>
   <si>
     <t>Add LN column to BOM Screen</t>
+  </si>
+  <si>
+    <t>Ordered by Actual Start. LMD: 6/24/2014</t>
   </si>
 </sst>
 </file>
@@ -1427,9 +1427,6 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,6 +1456,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4246,10 +4246,10 @@
   <dimension ref="A2:LK194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="IZ171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="IZ129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F182" sqref="F182"/>
+      <selection pane="bottomRight" activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -4266,11 +4266,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:323" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4278,15 +4278,15 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -4312,9 +4312,9 @@
       </c>
     </row>
     <row r="4" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="44"/>
       <c r="E4" s="32"/>
       <c r="F4" s="18"/>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="5" spans="1:323" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15"/>
@@ -13245,11 +13245,11 @@
       <c r="LK69" s="28"/>
     </row>
     <row r="70" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="29"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -14397,10 +14397,10 @@
       <c r="C80" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D80" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" s="59"/>
+      <c r="D80" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="58"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="5">
@@ -15018,11 +15018,11 @@
       <c r="LK85" s="28"/>
     </row>
     <row r="86" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="29"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -19299,11 +19299,11 @@
       <c r="LK124" s="28"/>
     </row>
     <row r="125" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="67" t="s">
+      <c r="A125" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="29"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -19961,7 +19961,7 @@
       <c r="B131" s="26">
         <v>5</v>
       </c>
-      <c r="C131" s="53" t="s">
+      <c r="C131" s="55" t="s">
         <v>152</v>
       </c>
       <c r="D131" s="29">
@@ -19970,10 +19970,14 @@
       <c r="E131" s="13">
         <v>1</v>
       </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
+      <c r="F131" s="13">
+        <v>260</v>
+      </c>
+      <c r="G131" s="13">
+        <v>1</v>
+      </c>
       <c r="H131" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" s="28"/>
       <c r="O131" s="28"/>
@@ -20081,8 +20085,12 @@
       <c r="E132" s="13">
         <v>4</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
+      <c r="F132" s="13">
+        <v>260</v>
+      </c>
+      <c r="G132" s="13">
+        <v>1</v>
+      </c>
       <c r="H132" s="5">
         <v>0</v>
       </c>
@@ -21848,7 +21856,7 @@
       <c r="B148" s="26">
         <v>2</v>
       </c>
-      <c r="C148" s="61" t="s">
+      <c r="C148" s="60" t="s">
         <v>148</v>
       </c>
       <c r="D148" s="29">
@@ -23616,10 +23624,10 @@
       <c r="A164" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B164" s="67" t="s">
+      <c r="B164" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C164" s="67"/>
+      <c r="C164" s="66"/>
       <c r="D164" s="29"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
@@ -23831,7 +23839,7 @@
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="53" t="s">
+      <c r="C166" s="55" t="s">
         <v>201</v>
       </c>
       <c r="D166" s="29"/>
@@ -23944,7 +23952,7 @@
       <c r="B167" s="26">
         <v>5</v>
       </c>
-      <c r="C167" s="53" t="s">
+      <c r="C167" s="55" t="s">
         <v>223</v>
       </c>
       <c r="D167" s="29"/>
@@ -24054,7 +24062,7 @@
       <c r="B168" s="26">
         <v>5</v>
       </c>
-      <c r="C168" s="58" t="s">
+      <c r="C168" s="68" t="s">
         <v>208</v>
       </c>
       <c r="D168" s="29"/>
@@ -24167,7 +24175,7 @@
       <c r="B169" s="26">
         <v>5</v>
       </c>
-      <c r="C169" s="58" t="s">
+      <c r="C169" s="68" t="s">
         <v>209</v>
       </c>
       <c r="D169" s="29"/>
@@ -24280,7 +24288,7 @@
       <c r="B170" s="26">
         <v>5</v>
       </c>
-      <c r="C170" s="58" t="s">
+      <c r="C170" s="68" t="s">
         <v>210</v>
       </c>
       <c r="D170" s="29"/>
@@ -24393,7 +24401,7 @@
       <c r="B171" s="26">
         <v>5</v>
       </c>
-      <c r="C171" s="58" t="s">
+      <c r="C171" s="68" t="s">
         <v>216</v>
       </c>
       <c r="D171" s="29"/>
@@ -24506,7 +24514,7 @@
       <c r="B172" s="26">
         <v>5</v>
       </c>
-      <c r="C172" s="58" t="s">
+      <c r="C172" s="68" t="s">
         <v>215</v>
       </c>
       <c r="D172" s="29"/>
@@ -24617,7 +24625,7 @@
       <c r="B173" s="26">
         <v>5</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="68" t="s">
         <v>217</v>
       </c>
       <c r="D173" s="29"/>
@@ -24730,7 +24738,7 @@
       <c r="B174" s="26">
         <v>5</v>
       </c>
-      <c r="C174" s="58" t="s">
+      <c r="C174" s="68" t="s">
         <v>219</v>
       </c>
       <c r="D174" s="29"/>
@@ -24842,7 +24850,7 @@
       <c r="B175" s="26">
         <v>5</v>
       </c>
-      <c r="C175" s="58" t="s">
+      <c r="C175" s="68" t="s">
         <v>218</v>
       </c>
       <c r="D175" s="29"/>
@@ -24954,7 +24962,7 @@
       <c r="B176" s="26">
         <v>5</v>
       </c>
-      <c r="C176" s="58" t="s">
+      <c r="C176" s="68" t="s">
         <v>220</v>
       </c>
       <c r="D176" s="29"/>
@@ -25067,7 +25075,7 @@
       <c r="B177" s="26">
         <v>5</v>
       </c>
-      <c r="C177" s="53" t="s">
+      <c r="C177" s="55" t="s">
         <v>213</v>
       </c>
       <c r="D177" s="29"/>
@@ -25146,7 +25154,7 @@
       <c r="HQ177" s="28"/>
       <c r="HW177" s="28"/>
       <c r="HX177" s="28"/>
-      <c r="HY177" s="59"/>
+      <c r="HY177" s="58"/>
       <c r="ID177" s="28"/>
       <c r="IE177" s="28"/>
       <c r="IK177" s="28"/>
@@ -25180,7 +25188,7 @@
       <c r="B178" s="26">
         <v>5</v>
       </c>
-      <c r="C178" s="53" t="s">
+      <c r="C178" s="55" t="s">
         <v>211</v>
       </c>
       <c r="D178" s="29"/>
@@ -25293,7 +25301,7 @@
       <c r="B179" s="26">
         <v>5</v>
       </c>
-      <c r="C179" s="53" t="s">
+      <c r="C179" s="55" t="s">
         <v>214</v>
       </c>
       <c r="D179" s="29"/>
@@ -25406,7 +25414,7 @@
       <c r="B180" s="26">
         <v>5</v>
       </c>
-      <c r="C180" s="53" t="s">
+      <c r="C180" s="55" t="s">
         <v>221</v>
       </c>
       <c r="D180" s="29"/>
@@ -25519,7 +25527,7 @@
       <c r="B181" s="26">
         <v>5</v>
       </c>
-      <c r="C181" s="53" t="s">
+      <c r="C181" s="55" t="s">
         <v>222</v>
       </c>
       <c r="D181" s="29"/>
@@ -25632,7 +25640,7 @@
       <c r="B182" s="26">
         <v>5</v>
       </c>
-      <c r="C182" s="53" t="s">
+      <c r="C182" s="55" t="s">
         <v>224</v>
       </c>
       <c r="D182" s="29">
@@ -25845,13 +25853,13 @@
     </row>
     <row r="184" spans="1:323" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B184" s="26">
         <v>3</v>
       </c>
       <c r="C184" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="13">
@@ -25960,7 +25968,7 @@
         <v>3</v>
       </c>
       <c r="C185" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="13">
@@ -26069,7 +26077,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="13">
@@ -26178,7 +26186,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="13">
@@ -26287,7 +26295,7 @@
         <v>3</v>
       </c>
       <c r="C188" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="13">
@@ -26396,7 +26404,7 @@
         <v>3</v>
       </c>
       <c r="C189" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="13">
@@ -27325,7 +27333,7 @@
       <c r="D6" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="61"/>
       <c r="AO6" s="35" t="s">
         <v>59</v>
       </c>
@@ -27461,20 +27469,20 @@
         <v>161</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="65"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
@@ -27490,11 +27498,11 @@
       <c r="A17" s="36">
         <v>13</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">

--- a/APQM Gantt.xlsx
+++ b/APQM Gantt.xlsx
@@ -1451,14 +1451,14 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3943,7 +3943,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="155" min="1" page="10" val="155"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="500" min="1" page="10" val="261"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4246,10 +4246,10 @@
   <dimension ref="A2:LK194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="IZ129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="JE131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I133" sqref="I133"/>
+      <selection pane="bottomRight" activeCell="JJ132" sqref="JJ132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -4266,11 +4266,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:323" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4278,15 +4278,15 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -4312,9 +4312,9 @@
       </c>
     </row>
     <row r="4" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="44"/>
       <c r="E4" s="32"/>
       <c r="F4" s="18"/>
@@ -13245,11 +13245,11 @@
       <c r="LK69" s="28"/>
     </row>
     <row r="70" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="29"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -15018,11 +15018,11 @@
       <c r="LK85" s="28"/>
     </row>
     <row r="86" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="29"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -19299,11 +19299,11 @@
       <c r="LK124" s="28"/>
     </row>
     <row r="125" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="66" t="s">
+      <c r="A125" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
       <c r="D125" s="29"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -20076,7 +20076,7 @@
       <c r="B132" s="26">
         <v>5</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="55" t="s">
         <v>163</v>
       </c>
       <c r="D132" s="29">
@@ -20089,10 +20089,10 @@
         <v>260</v>
       </c>
       <c r="G132" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" s="28"/>
       <c r="O132" s="28"/>
@@ -23624,10 +23624,10 @@
       <c r="A164" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B164" s="66" t="s">
+      <c r="B164" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C164" s="66"/>
+      <c r="C164" s="67"/>
       <c r="D164" s="29"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
@@ -24062,7 +24062,7 @@
       <c r="B168" s="26">
         <v>5</v>
       </c>
-      <c r="C168" s="68" t="s">
+      <c r="C168" s="66" t="s">
         <v>208</v>
       </c>
       <c r="D168" s="29"/>
@@ -24175,7 +24175,7 @@
       <c r="B169" s="26">
         <v>5</v>
       </c>
-      <c r="C169" s="68" t="s">
+      <c r="C169" s="66" t="s">
         <v>209</v>
       </c>
       <c r="D169" s="29"/>
@@ -24288,7 +24288,7 @@
       <c r="B170" s="26">
         <v>5</v>
       </c>
-      <c r="C170" s="68" t="s">
+      <c r="C170" s="66" t="s">
         <v>210</v>
       </c>
       <c r="D170" s="29"/>
@@ -24401,7 +24401,7 @@
       <c r="B171" s="26">
         <v>5</v>
       </c>
-      <c r="C171" s="68" t="s">
+      <c r="C171" s="66" t="s">
         <v>216</v>
       </c>
       <c r="D171" s="29"/>
@@ -24514,7 +24514,7 @@
       <c r="B172" s="26">
         <v>5</v>
       </c>
-      <c r="C172" s="68" t="s">
+      <c r="C172" s="66" t="s">
         <v>215</v>
       </c>
       <c r="D172" s="29"/>
@@ -24625,7 +24625,7 @@
       <c r="B173" s="26">
         <v>5</v>
       </c>
-      <c r="C173" s="68" t="s">
+      <c r="C173" s="66" t="s">
         <v>217</v>
       </c>
       <c r="D173" s="29"/>
@@ -24738,7 +24738,7 @@
       <c r="B174" s="26">
         <v>5</v>
       </c>
-      <c r="C174" s="68" t="s">
+      <c r="C174" s="66" t="s">
         <v>219</v>
       </c>
       <c r="D174" s="29"/>
@@ -24850,7 +24850,7 @@
       <c r="B175" s="26">
         <v>5</v>
       </c>
-      <c r="C175" s="68" t="s">
+      <c r="C175" s="66" t="s">
         <v>218</v>
       </c>
       <c r="D175" s="29"/>
@@ -24962,7 +24962,7 @@
       <c r="B176" s="26">
         <v>5</v>
       </c>
-      <c r="C176" s="68" t="s">
+      <c r="C176" s="66" t="s">
         <v>220</v>
       </c>
       <c r="D176" s="29"/>

--- a/APQM Gantt.xlsx
+++ b/APQM Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="4335" windowWidth="10230" windowHeight="4350"/>
+    <workbookView xWindow="10305" yWindow="4335" windowWidth="10230" windowHeight="4350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APQM Gantt" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="238">
   <si>
     <t>Plan</t>
   </si>
@@ -903,6 +903,9 @@
   </si>
   <si>
     <t>Ordered by Actual Start. LMD: 6/24/2014</t>
+  </si>
+  <si>
+    <t>HTML Report summing all eaus</t>
   </si>
 </sst>
 </file>
@@ -4245,11 +4248,11 @@
   </sheetPr>
   <dimension ref="A2:LK194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="9" ySplit="7" topLeftCell="JE131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="JJ132" sqref="JJ132"/>
+      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -27251,9 +27254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO238"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27482,7 +27485,15 @@
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="65">
+        <v>41815</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="36">

--- a/APQM Gantt.xlsx
+++ b/APQM Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="4335" windowWidth="10230" windowHeight="4350" activeTab="1"/>
+    <workbookView xWindow="10305" yWindow="4335" windowWidth="10230" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="APQM Gantt" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="240">
   <si>
     <t>Plan</t>
   </si>
@@ -650,9 +650,6 @@
     <t>See issue with NDA</t>
   </si>
   <si>
-    <t>Change BOM Component status when its RFQ award/selected has been deleted</t>
-  </si>
-  <si>
     <t>Page inside emails</t>
   </si>
   <si>
@@ -902,10 +899,19 @@
     <t>Add LN column to BOM Screen</t>
   </si>
   <si>
-    <t>Ordered by Actual Start. LMD: 6/24/2014</t>
+    <t>HTML Report summing all eaus</t>
   </si>
   <si>
-    <t>HTML Report summing all eaus</t>
+    <t>Not programmed</t>
+  </si>
+  <si>
+    <t>Ordered by Actual Start. LMD: 7/1/2014</t>
+  </si>
+  <si>
+    <t>to be able to quote some component that was before estimated, but not remove the estimated information</t>
+  </si>
+  <si>
+    <t>Add UM to Sales DB so then, it can be imported to APQM</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1462,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3946,7 +3955,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="500" min="1" page="10" val="261"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="500" min="1" page="10" val="268"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4246,13 +4255,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:LK194"/>
+  <dimension ref="A2:LK208"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="JE131" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="9" ySplit="7" topLeftCell="JL190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomRight" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -4269,11 +4278,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:323" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4281,15 +4290,15 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -4315,9 +4324,9 @@
       </c>
     </row>
     <row r="4" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="44"/>
       <c r="E4" s="32"/>
       <c r="F4" s="18"/>
@@ -4326,7 +4335,7 @@
     </row>
     <row r="5" spans="1:323" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15"/>
@@ -13248,11 +13257,11 @@
       <c r="LK69" s="28"/>
     </row>
     <row r="70" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
       <c r="D70" s="29"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -14401,7 +14410,7 @@
         <v>128</v>
       </c>
       <c r="D80" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E80" s="58"/>
       <c r="F80" s="13"/>
@@ -15021,11 +15030,11 @@
       <c r="LK85" s="28"/>
     </row>
     <row r="86" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
       <c r="D86" s="29"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -15893,7 +15902,7 @@
       <c r="LJ93" s="28"/>
       <c r="LK93" s="28"/>
     </row>
-    <row r="94" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:323" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="26">
         <v>5</v>
@@ -18225,7 +18234,7 @@
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
       <c r="C115" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="13">
@@ -18336,7 +18345,7 @@
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
       <c r="C116" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="13"/>
@@ -18445,7 +18454,7 @@
       <c r="A117" s="25"/>
       <c r="B117" s="26"/>
       <c r="C117" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="13"/>
@@ -18554,7 +18563,7 @@
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
       <c r="C118" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="13"/>
@@ -18663,7 +18672,7 @@
       <c r="A119" s="25"/>
       <c r="B119" s="26"/>
       <c r="C119" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="13"/>
@@ -18772,7 +18781,7 @@
       <c r="A120" s="25"/>
       <c r="B120" s="26"/>
       <c r="C120" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D120" s="29">
         <v>116</v>
@@ -18885,7 +18894,7 @@
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
       <c r="C121" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="13"/>
@@ -18994,7 +19003,7 @@
       <c r="A122" s="25"/>
       <c r="B122" s="26"/>
       <c r="C122" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="13"/>
@@ -19302,11 +19311,11 @@
       <c r="LK124" s="28"/>
     </row>
     <row r="125" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="67" t="s">
+      <c r="A125" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="68"/>
       <c r="D125" s="29"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -19410,7 +19419,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="13"/>
@@ -19521,7 +19530,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="13"/>
@@ -19632,7 +19641,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="13"/>
@@ -19743,7 +19752,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="13"/>
@@ -19853,8 +19862,8 @@
       <c r="B130" s="26">
         <v>4</v>
       </c>
-      <c r="C130" s="53" t="s">
-        <v>166</v>
+      <c r="C130" s="55" t="s">
+        <v>165</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="13"/>
@@ -19965,7 +19974,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="55" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="D131" s="29">
         <v>256</v>
@@ -20080,7 +20089,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" s="29">
         <v>256</v>
@@ -20195,7 +20204,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D133" s="29">
         <v>259</v>
@@ -20306,7 +20315,7 @@
         <v>4</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D134" s="29">
         <v>260</v>
@@ -20417,7 +20426,7 @@
         <v>4</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D135" s="29">
         <v>260</v>
@@ -20528,7 +20537,7 @@
         <v>4</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D136" s="29">
         <v>260</v>
@@ -20639,7 +20648,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D137" s="29">
         <v>261</v>
@@ -20861,7 +20870,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D139" s="29">
         <v>262</v>
@@ -20972,7 +20981,7 @@
         <v>3</v>
       </c>
       <c r="C140" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D140" s="29">
         <v>262</v>
@@ -21083,7 +21092,7 @@
         <v>3</v>
       </c>
       <c r="C141" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D141" s="29">
         <v>263</v>
@@ -21194,7 +21203,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D142" s="29">
         <v>263</v>
@@ -21305,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D143" s="29">
         <v>266</v>
@@ -21416,7 +21425,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D144" s="29">
         <v>266</v>
@@ -21527,7 +21536,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D145" s="29">
         <v>268</v>
@@ -21638,7 +21647,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D146" s="29">
         <v>268</v>
@@ -21749,7 +21758,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D147" s="29">
         <v>269</v>
@@ -21971,7 +21980,7 @@
         <v>2</v>
       </c>
       <c r="C149" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D149" s="29">
         <v>281</v>
@@ -22082,7 +22091,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D150" s="29">
         <v>287</v>
@@ -22304,7 +22313,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" s="29">
         <v>289</v>
@@ -22415,7 +22424,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D153" s="29">
         <v>290</v>
@@ -22526,7 +22535,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154" s="29">
         <v>290</v>
@@ -22637,7 +22646,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D155" s="29">
         <v>294</v>
@@ -22970,7 +22979,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D158" s="29">
         <v>296</v>
@@ -23625,12 +23634,12 @@
     </row>
     <row r="164" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="B164" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="C164" s="67"/>
+        <v>201</v>
+      </c>
+      <c r="B164" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C164" s="68"/>
       <c r="D164" s="29"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
@@ -23730,13 +23739,13 @@
     </row>
     <row r="165" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B165" s="26">
         <v>3</v>
       </c>
       <c r="C165" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="13"/>
@@ -23837,13 +23846,13 @@
     </row>
     <row r="166" spans="1:323" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B166" s="26">
         <v>5</v>
       </c>
       <c r="C166" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="13"/>
@@ -23950,13 +23959,13 @@
     </row>
     <row r="167" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167" s="26">
         <v>5</v>
       </c>
       <c r="C167" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="13"/>
@@ -24060,13 +24069,13 @@
     </row>
     <row r="168" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B168" s="26">
         <v>5</v>
       </c>
       <c r="C168" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="13"/>
@@ -24173,13 +24182,13 @@
     </row>
     <row r="169" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="26">
         <v>5</v>
       </c>
       <c r="C169" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="13"/>
@@ -24286,13 +24295,13 @@
     </row>
     <row r="170" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B170" s="26">
         <v>5</v>
       </c>
       <c r="C170" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="13"/>
@@ -24399,13 +24408,13 @@
     </row>
     <row r="171" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="26">
         <v>5</v>
       </c>
       <c r="C171" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="13"/>
@@ -24512,13 +24521,13 @@
     </row>
     <row r="172" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B172" s="26">
         <v>5</v>
       </c>
       <c r="C172" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="13"/>
@@ -24623,13 +24632,13 @@
     </row>
     <row r="173" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B173" s="26">
         <v>5</v>
       </c>
       <c r="C173" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="13"/>
@@ -24736,13 +24745,13 @@
     </row>
     <row r="174" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B174" s="26">
         <v>5</v>
       </c>
       <c r="C174" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="13"/>
@@ -24848,13 +24857,13 @@
     </row>
     <row r="175" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B175" s="26">
         <v>5</v>
       </c>
       <c r="C175" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="13"/>
@@ -24960,13 +24969,13 @@
     </row>
     <row r="176" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B176" s="26">
         <v>5</v>
       </c>
       <c r="C176" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="13"/>
@@ -25073,13 +25082,13 @@
     </row>
     <row r="177" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177" s="26">
         <v>5</v>
       </c>
       <c r="C177" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="13"/>
@@ -25186,13 +25195,13 @@
     </row>
     <row r="178" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B178" s="26">
         <v>5</v>
       </c>
       <c r="C178" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="13"/>
@@ -25299,13 +25308,13 @@
     </row>
     <row r="179" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B179" s="26">
         <v>5</v>
       </c>
       <c r="C179" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="13"/>
@@ -25412,13 +25421,13 @@
     </row>
     <row r="180" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B180" s="26">
         <v>5</v>
       </c>
       <c r="C180" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="13"/>
@@ -25525,13 +25534,13 @@
     </row>
     <row r="181" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B181" s="26">
         <v>5</v>
       </c>
       <c r="C181" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="13"/>
@@ -25638,13 +25647,13 @@
     </row>
     <row r="182" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B182" s="26">
         <v>5</v>
       </c>
       <c r="C182" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D182" s="29">
         <v>254</v>
@@ -25856,13 +25865,13 @@
     </row>
     <row r="184" spans="1:323" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B184" s="26">
         <v>3</v>
       </c>
       <c r="C184" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="13">
@@ -25965,13 +25974,13 @@
     </row>
     <row r="185" spans="1:323" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="26">
         <v>3</v>
       </c>
       <c r="C185" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="13">
@@ -26074,13 +26083,13 @@
     </row>
     <row r="186" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B186" s="26">
         <v>3</v>
       </c>
       <c r="C186" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="13">
@@ -26183,13 +26192,13 @@
     </row>
     <row r="187" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B187" s="26">
         <v>3</v>
       </c>
       <c r="C187" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="13">
@@ -26292,13 +26301,13 @@
     </row>
     <row r="188" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="26">
         <v>3</v>
       </c>
       <c r="C188" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="13">
@@ -26401,13 +26410,13 @@
     </row>
     <row r="189" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B189" s="26">
         <v>3</v>
       </c>
       <c r="C189" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="13">
@@ -26609,29 +26618,1458 @@
       <c r="LJ190" s="28"/>
       <c r="LK190" s="28"/>
     </row>
-    <row r="191" spans="1:323" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
+    <row r="191" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="25"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="5"/>
+      <c r="N191" s="28"/>
+      <c r="O191" s="28"/>
+      <c r="U191" s="28"/>
+      <c r="V191" s="28"/>
+      <c r="AB191" s="28"/>
+      <c r="AC191" s="28"/>
+      <c r="AI191" s="28"/>
+      <c r="AJ191" s="28"/>
+      <c r="AP191" s="28"/>
+      <c r="AQ191" s="28"/>
+      <c r="AW191" s="28"/>
+      <c r="AX191" s="28"/>
+      <c r="BD191" s="28"/>
+      <c r="BE191" s="28"/>
+      <c r="BK191" s="28"/>
+      <c r="BL191" s="28"/>
+      <c r="BR191" s="28"/>
+      <c r="BS191" s="28"/>
+      <c r="BY191" s="28"/>
+      <c r="BZ191" s="28"/>
       <c r="CE191" s="38"/>
-      <c r="CG191" s="38"/>
-      <c r="CI191" s="38"/>
-      <c r="CK191" s="38"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="56"/>
+      <c r="CF191" s="28"/>
+      <c r="CG191" s="28"/>
+      <c r="CM191" s="28"/>
+      <c r="CN191" s="28"/>
+      <c r="CT191" s="28"/>
+      <c r="CU191" s="28"/>
+      <c r="DA191" s="28"/>
+      <c r="DB191" s="28"/>
+      <c r="DH191" s="28"/>
+      <c r="DI191" s="28"/>
+      <c r="DO191" s="28"/>
+      <c r="DP191" s="28"/>
+      <c r="DV191" s="28"/>
+      <c r="DW191" s="28"/>
+      <c r="EC191" s="28"/>
+      <c r="ED191" s="28"/>
+      <c r="EJ191" s="28"/>
+      <c r="EK191" s="28"/>
+      <c r="EQ191" s="28"/>
+      <c r="ER191" s="28"/>
+      <c r="EX191" s="28"/>
+      <c r="EY191" s="28"/>
+      <c r="FE191" s="28"/>
+      <c r="FF191" s="28"/>
+      <c r="FL191" s="28"/>
+      <c r="FM191" s="28"/>
+      <c r="FS191" s="28"/>
+      <c r="FT191" s="28"/>
+      <c r="FZ191" s="28"/>
+      <c r="GA191" s="28"/>
+      <c r="GG191" s="28"/>
+      <c r="GH191" s="28"/>
+      <c r="GN191" s="28"/>
+      <c r="GO191" s="28"/>
+      <c r="GU191" s="28"/>
+      <c r="GV191" s="28"/>
+      <c r="HB191" s="28"/>
+      <c r="HC191" s="28"/>
+      <c r="HI191" s="28"/>
+      <c r="HJ191" s="28"/>
+      <c r="HP191" s="28"/>
+      <c r="HQ191" s="28"/>
+      <c r="HW191" s="28"/>
+      <c r="HX191" s="28"/>
+      <c r="ID191" s="28"/>
+      <c r="IE191" s="28"/>
+      <c r="IK191" s="28"/>
+      <c r="IL191" s="28"/>
+      <c r="IR191" s="28"/>
+      <c r="IS191" s="28"/>
+      <c r="IY191" s="28"/>
+      <c r="IZ191" s="28"/>
+      <c r="JF191" s="28"/>
+      <c r="JG191" s="28"/>
+      <c r="JM191" s="28"/>
+      <c r="JN191" s="28"/>
+      <c r="JT191" s="28"/>
+      <c r="JU191" s="28"/>
+      <c r="KA191" s="28"/>
+      <c r="KB191" s="28"/>
+      <c r="KH191" s="28"/>
+      <c r="KI191" s="28"/>
+      <c r="KO191" s="28"/>
+      <c r="KP191" s="28"/>
+      <c r="KV191" s="28"/>
+      <c r="KW191" s="28"/>
+      <c r="LC191" s="28"/>
+      <c r="LD191" s="28"/>
+      <c r="LJ191" s="28"/>
+      <c r="LK191" s="28"/>
+    </row>
+    <row r="192" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B192" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C192" s="68"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="5"/>
+      <c r="N192" s="28"/>
+      <c r="O192" s="28"/>
+      <c r="U192" s="28"/>
+      <c r="V192" s="28"/>
+      <c r="AB192" s="28"/>
+      <c r="AC192" s="28"/>
+      <c r="AI192" s="28"/>
+      <c r="AJ192" s="28"/>
+      <c r="AP192" s="28"/>
+      <c r="AQ192" s="28"/>
+      <c r="AW192" s="28"/>
+      <c r="AX192" s="28"/>
+      <c r="BD192" s="28"/>
+      <c r="BE192" s="28"/>
+      <c r="BK192" s="28"/>
+      <c r="BL192" s="28"/>
+      <c r="BR192" s="28"/>
+      <c r="BS192" s="28"/>
+      <c r="BY192" s="28"/>
+      <c r="BZ192" s="28"/>
+      <c r="CE192" s="38"/>
+      <c r="CF192" s="28"/>
+      <c r="CG192" s="28"/>
+      <c r="CM192" s="28"/>
+      <c r="CN192" s="28"/>
+      <c r="CT192" s="28"/>
+      <c r="CU192" s="28"/>
+      <c r="DA192" s="28"/>
+      <c r="DB192" s="28"/>
+      <c r="DH192" s="28"/>
+      <c r="DI192" s="28"/>
+      <c r="DO192" s="28"/>
+      <c r="DP192" s="28"/>
+      <c r="DV192" s="28"/>
+      <c r="DW192" s="28"/>
+      <c r="EC192" s="28"/>
+      <c r="ED192" s="28"/>
+      <c r="EJ192" s="28"/>
+      <c r="EK192" s="28"/>
+      <c r="EQ192" s="28"/>
+      <c r="ER192" s="28"/>
+      <c r="EX192" s="28"/>
+      <c r="EY192" s="28"/>
+      <c r="FE192" s="28"/>
+      <c r="FF192" s="28"/>
+      <c r="FL192" s="28"/>
+      <c r="FM192" s="28"/>
+      <c r="FS192" s="28"/>
+      <c r="FT192" s="28"/>
+      <c r="FZ192" s="28"/>
+      <c r="GA192" s="28"/>
+      <c r="GG192" s="28"/>
+      <c r="GH192" s="28"/>
+      <c r="GN192" s="28"/>
+      <c r="GO192" s="28"/>
+      <c r="GU192" s="28"/>
+      <c r="GV192" s="28"/>
+      <c r="HB192" s="28"/>
+      <c r="HC192" s="28"/>
+      <c r="HI192" s="28"/>
+      <c r="HJ192" s="28"/>
+      <c r="HP192" s="28"/>
+      <c r="HQ192" s="28"/>
+      <c r="HW192" s="28"/>
+      <c r="HX192" s="28"/>
+      <c r="ID192" s="28"/>
+      <c r="IE192" s="28"/>
+      <c r="IK192" s="28"/>
+      <c r="IL192" s="28"/>
+      <c r="IR192" s="28"/>
+      <c r="IS192" s="28"/>
+      <c r="IY192" s="28"/>
+      <c r="IZ192" s="28"/>
+      <c r="JF192" s="28"/>
+      <c r="JG192" s="28"/>
+      <c r="JM192" s="28"/>
+      <c r="JN192" s="28"/>
+      <c r="JT192" s="28"/>
+      <c r="JU192" s="28"/>
+      <c r="KA192" s="28"/>
+      <c r="KB192" s="28"/>
+      <c r="KH192" s="28"/>
+      <c r="KI192" s="28"/>
+      <c r="KO192" s="28"/>
+      <c r="KP192" s="28"/>
+      <c r="KV192" s="28"/>
+      <c r="KW192" s="28"/>
+      <c r="LC192" s="28"/>
+      <c r="LD192" s="28"/>
+      <c r="LJ192" s="28"/>
+      <c r="LK192" s="28"/>
+    </row>
+    <row r="193" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B193" s="26"/>
+      <c r="C193" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D193" s="29"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13">
+        <v>267</v>
+      </c>
+      <c r="G193" s="13">
+        <v>2</v>
+      </c>
+      <c r="H193" s="5">
+        <v>1</v>
+      </c>
+      <c r="N193" s="28"/>
+      <c r="O193" s="28"/>
+      <c r="U193" s="28"/>
+      <c r="V193" s="28"/>
+      <c r="AB193" s="28"/>
+      <c r="AC193" s="28"/>
+      <c r="AI193" s="28"/>
+      <c r="AJ193" s="28"/>
+      <c r="AP193" s="28"/>
+      <c r="AQ193" s="28"/>
+      <c r="AW193" s="28"/>
+      <c r="AX193" s="28"/>
+      <c r="BD193" s="28"/>
+      <c r="BE193" s="28"/>
+      <c r="BK193" s="28"/>
+      <c r="BL193" s="28"/>
+      <c r="BR193" s="28"/>
+      <c r="BS193" s="28"/>
+      <c r="BY193" s="28"/>
+      <c r="BZ193" s="28"/>
+      <c r="CE193" s="38"/>
+      <c r="CF193" s="28"/>
+      <c r="CG193" s="28"/>
+      <c r="CM193" s="28"/>
+      <c r="CN193" s="28"/>
+      <c r="CT193" s="28"/>
+      <c r="CU193" s="28"/>
+      <c r="DA193" s="28"/>
+      <c r="DB193" s="28"/>
+      <c r="DH193" s="28"/>
+      <c r="DI193" s="28"/>
+      <c r="DO193" s="28"/>
+      <c r="DP193" s="28"/>
+      <c r="DV193" s="28"/>
+      <c r="DW193" s="28"/>
+      <c r="EC193" s="28"/>
+      <c r="ED193" s="28"/>
+      <c r="EJ193" s="28"/>
+      <c r="EK193" s="28"/>
+      <c r="EQ193" s="28"/>
+      <c r="ER193" s="28"/>
+      <c r="EX193" s="28"/>
+      <c r="EY193" s="28"/>
+      <c r="FE193" s="28"/>
+      <c r="FF193" s="28"/>
+      <c r="FL193" s="28"/>
+      <c r="FM193" s="28"/>
+      <c r="FS193" s="28"/>
+      <c r="FT193" s="28"/>
+      <c r="FZ193" s="28"/>
+      <c r="GA193" s="28"/>
+      <c r="GG193" s="28"/>
+      <c r="GH193" s="28"/>
+      <c r="GN193" s="28"/>
+      <c r="GO193" s="28"/>
+      <c r="GU193" s="28"/>
+      <c r="GV193" s="28"/>
+      <c r="HB193" s="28"/>
+      <c r="HC193" s="28"/>
+      <c r="HI193" s="28"/>
+      <c r="HJ193" s="28"/>
+      <c r="HP193" s="28"/>
+      <c r="HQ193" s="28"/>
+      <c r="HW193" s="28"/>
+      <c r="HX193" s="28"/>
+      <c r="ID193" s="28"/>
+      <c r="IE193" s="28"/>
+      <c r="IK193" s="28"/>
+      <c r="IL193" s="28"/>
+      <c r="IR193" s="28"/>
+      <c r="IS193" s="28"/>
+      <c r="IY193" s="28"/>
+      <c r="IZ193" s="28"/>
+      <c r="JF193" s="28"/>
+      <c r="JG193" s="28"/>
+      <c r="JM193" s="28"/>
+      <c r="JN193" s="28"/>
+      <c r="JT193" s="28"/>
+      <c r="JU193" s="28"/>
+      <c r="KA193" s="28"/>
+      <c r="KB193" s="28"/>
+      <c r="KH193" s="28"/>
+      <c r="KI193" s="28"/>
+      <c r="KO193" s="28"/>
+      <c r="KP193" s="28"/>
+      <c r="KV193" s="28"/>
+      <c r="KW193" s="28"/>
+      <c r="LC193" s="28"/>
+      <c r="LD193" s="28"/>
+      <c r="LJ193" s="28"/>
+      <c r="LK193" s="28"/>
+    </row>
+    <row r="194" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="25"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="5"/>
+      <c r="N194" s="28"/>
+      <c r="O194" s="28"/>
+      <c r="U194" s="28"/>
+      <c r="V194" s="28"/>
+      <c r="AB194" s="28"/>
+      <c r="AC194" s="28"/>
+      <c r="AI194" s="28"/>
+      <c r="AJ194" s="28"/>
+      <c r="AP194" s="28"/>
+      <c r="AQ194" s="28"/>
+      <c r="AW194" s="28"/>
+      <c r="AX194" s="28"/>
+      <c r="BD194" s="28"/>
+      <c r="BE194" s="28"/>
+      <c r="BK194" s="28"/>
+      <c r="BL194" s="28"/>
+      <c r="BR194" s="28"/>
+      <c r="BS194" s="28"/>
+      <c r="BY194" s="28"/>
+      <c r="BZ194" s="28"/>
+      <c r="CE194" s="38"/>
+      <c r="CF194" s="28"/>
+      <c r="CG194" s="28"/>
+      <c r="CM194" s="28"/>
+      <c r="CN194" s="28"/>
+      <c r="CT194" s="28"/>
+      <c r="CU194" s="28"/>
+      <c r="DA194" s="28"/>
+      <c r="DB194" s="28"/>
+      <c r="DH194" s="28"/>
+      <c r="DI194" s="28"/>
+      <c r="DO194" s="28"/>
+      <c r="DP194" s="28"/>
+      <c r="DV194" s="28"/>
+      <c r="DW194" s="28"/>
+      <c r="EC194" s="28"/>
+      <c r="ED194" s="28"/>
+      <c r="EJ194" s="28"/>
+      <c r="EK194" s="28"/>
+      <c r="EQ194" s="28"/>
+      <c r="ER194" s="28"/>
+      <c r="EX194" s="28"/>
+      <c r="EY194" s="28"/>
+      <c r="FE194" s="28"/>
+      <c r="FF194" s="28"/>
+      <c r="FL194" s="28"/>
+      <c r="FM194" s="28"/>
+      <c r="FS194" s="28"/>
+      <c r="FT194" s="28"/>
+      <c r="FZ194" s="28"/>
+      <c r="GA194" s="28"/>
+      <c r="GG194" s="28"/>
+      <c r="GH194" s="28"/>
+      <c r="GN194" s="28"/>
+      <c r="GO194" s="28"/>
+      <c r="GU194" s="28"/>
+      <c r="GV194" s="28"/>
+      <c r="HB194" s="28"/>
+      <c r="HC194" s="28"/>
+      <c r="HI194" s="28"/>
+      <c r="HJ194" s="28"/>
+      <c r="HP194" s="28"/>
+      <c r="HQ194" s="28"/>
+      <c r="HW194" s="28"/>
+      <c r="HX194" s="28"/>
+      <c r="ID194" s="28"/>
+      <c r="IE194" s="28"/>
+      <c r="IK194" s="28"/>
+      <c r="IL194" s="28"/>
+      <c r="IR194" s="28"/>
+      <c r="IS194" s="28"/>
+      <c r="IY194" s="28"/>
+      <c r="IZ194" s="28"/>
+      <c r="JF194" s="28"/>
+      <c r="JG194" s="28"/>
+      <c r="JM194" s="28"/>
+      <c r="JN194" s="28"/>
+      <c r="JT194" s="28"/>
+      <c r="JU194" s="28"/>
+      <c r="KA194" s="28"/>
+      <c r="KB194" s="28"/>
+      <c r="KH194" s="28"/>
+      <c r="KI194" s="28"/>
+      <c r="KO194" s="28"/>
+      <c r="KP194" s="28"/>
+      <c r="KV194" s="28"/>
+      <c r="KW194" s="28"/>
+      <c r="LC194" s="28"/>
+      <c r="LD194" s="28"/>
+      <c r="LJ194" s="28"/>
+      <c r="LK194" s="28"/>
+    </row>
+    <row r="195" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="25"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="5"/>
+      <c r="N195" s="28"/>
+      <c r="O195" s="28"/>
+      <c r="U195" s="28"/>
+      <c r="V195" s="28"/>
+      <c r="AB195" s="28"/>
+      <c r="AC195" s="28"/>
+      <c r="AI195" s="28"/>
+      <c r="AJ195" s="28"/>
+      <c r="AP195" s="28"/>
+      <c r="AQ195" s="28"/>
+      <c r="AW195" s="28"/>
+      <c r="AX195" s="28"/>
+      <c r="BD195" s="28"/>
+      <c r="BE195" s="28"/>
+      <c r="BK195" s="28"/>
+      <c r="BL195" s="28"/>
+      <c r="BR195" s="28"/>
+      <c r="BS195" s="28"/>
+      <c r="BY195" s="28"/>
+      <c r="BZ195" s="28"/>
+      <c r="CE195" s="38"/>
+      <c r="CF195" s="28"/>
+      <c r="CG195" s="28"/>
+      <c r="CM195" s="28"/>
+      <c r="CN195" s="28"/>
+      <c r="CT195" s="28"/>
+      <c r="CU195" s="28"/>
+      <c r="DA195" s="28"/>
+      <c r="DB195" s="28"/>
+      <c r="DH195" s="28"/>
+      <c r="DI195" s="28"/>
+      <c r="DO195" s="28"/>
+      <c r="DP195" s="28"/>
+      <c r="DV195" s="28"/>
+      <c r="DW195" s="28"/>
+      <c r="EC195" s="28"/>
+      <c r="ED195" s="28"/>
+      <c r="EJ195" s="28"/>
+      <c r="EK195" s="28"/>
+      <c r="EQ195" s="28"/>
+      <c r="ER195" s="28"/>
+      <c r="EX195" s="28"/>
+      <c r="EY195" s="28"/>
+      <c r="FE195" s="28"/>
+      <c r="FF195" s="28"/>
+      <c r="FL195" s="28"/>
+      <c r="FM195" s="28"/>
+      <c r="FS195" s="28"/>
+      <c r="FT195" s="28"/>
+      <c r="FZ195" s="28"/>
+      <c r="GA195" s="28"/>
+      <c r="GG195" s="28"/>
+      <c r="GH195" s="28"/>
+      <c r="GN195" s="28"/>
+      <c r="GO195" s="28"/>
+      <c r="GU195" s="28"/>
+      <c r="GV195" s="28"/>
+      <c r="HB195" s="28"/>
+      <c r="HC195" s="28"/>
+      <c r="HI195" s="28"/>
+      <c r="HJ195" s="28"/>
+      <c r="HP195" s="28"/>
+      <c r="HQ195" s="28"/>
+      <c r="HW195" s="28"/>
+      <c r="HX195" s="28"/>
+      <c r="ID195" s="28"/>
+      <c r="IE195" s="28"/>
+      <c r="IK195" s="28"/>
+      <c r="IL195" s="28"/>
+      <c r="IR195" s="28"/>
+      <c r="IS195" s="28"/>
+      <c r="IY195" s="28"/>
+      <c r="IZ195" s="28"/>
+      <c r="JF195" s="28"/>
+      <c r="JG195" s="28"/>
+      <c r="JM195" s="28"/>
+      <c r="JN195" s="28"/>
+      <c r="JT195" s="28"/>
+      <c r="JU195" s="28"/>
+      <c r="KA195" s="28"/>
+      <c r="KB195" s="28"/>
+      <c r="KH195" s="28"/>
+      <c r="KI195" s="28"/>
+      <c r="KO195" s="28"/>
+      <c r="KP195" s="28"/>
+      <c r="KV195" s="28"/>
+      <c r="KW195" s="28"/>
+      <c r="LC195" s="28"/>
+      <c r="LD195" s="28"/>
+      <c r="LJ195" s="28"/>
+      <c r="LK195" s="28"/>
+    </row>
+    <row r="196" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="25"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="5"/>
+      <c r="N196" s="28"/>
+      <c r="O196" s="28"/>
+      <c r="U196" s="28"/>
+      <c r="V196" s="28"/>
+      <c r="AB196" s="28"/>
+      <c r="AC196" s="28"/>
+      <c r="AI196" s="28"/>
+      <c r="AJ196" s="28"/>
+      <c r="AP196" s="28"/>
+      <c r="AQ196" s="28"/>
+      <c r="AW196" s="28"/>
+      <c r="AX196" s="28"/>
+      <c r="BD196" s="28"/>
+      <c r="BE196" s="28"/>
+      <c r="BK196" s="28"/>
+      <c r="BL196" s="28"/>
+      <c r="BR196" s="28"/>
+      <c r="BS196" s="28"/>
+      <c r="BY196" s="28"/>
+      <c r="BZ196" s="28"/>
+      <c r="CE196" s="38"/>
+      <c r="CF196" s="28"/>
+      <c r="CG196" s="28"/>
+      <c r="CM196" s="28"/>
+      <c r="CN196" s="28"/>
+      <c r="CT196" s="28"/>
+      <c r="CU196" s="28"/>
+      <c r="DA196" s="28"/>
+      <c r="DB196" s="28"/>
+      <c r="DH196" s="28"/>
+      <c r="DI196" s="28"/>
+      <c r="DO196" s="28"/>
+      <c r="DP196" s="28"/>
+      <c r="DV196" s="28"/>
+      <c r="DW196" s="28"/>
+      <c r="EC196" s="28"/>
+      <c r="ED196" s="28"/>
+      <c r="EJ196" s="28"/>
+      <c r="EK196" s="28"/>
+      <c r="EQ196" s="28"/>
+      <c r="ER196" s="28"/>
+      <c r="EX196" s="28"/>
+      <c r="EY196" s="28"/>
+      <c r="FE196" s="28"/>
+      <c r="FF196" s="28"/>
+      <c r="FL196" s="28"/>
+      <c r="FM196" s="28"/>
+      <c r="FS196" s="28"/>
+      <c r="FT196" s="28"/>
+      <c r="FZ196" s="28"/>
+      <c r="GA196" s="28"/>
+      <c r="GG196" s="28"/>
+      <c r="GH196" s="28"/>
+      <c r="GN196" s="28"/>
+      <c r="GO196" s="28"/>
+      <c r="GU196" s="28"/>
+      <c r="GV196" s="28"/>
+      <c r="HB196" s="28"/>
+      <c r="HC196" s="28"/>
+      <c r="HI196" s="28"/>
+      <c r="HJ196" s="28"/>
+      <c r="HP196" s="28"/>
+      <c r="HQ196" s="28"/>
+      <c r="HW196" s="28"/>
+      <c r="HX196" s="28"/>
+      <c r="ID196" s="28"/>
+      <c r="IE196" s="28"/>
+      <c r="IK196" s="28"/>
+      <c r="IL196" s="28"/>
+      <c r="IR196" s="28"/>
+      <c r="IS196" s="28"/>
+      <c r="IY196" s="28"/>
+      <c r="IZ196" s="28"/>
+      <c r="JF196" s="28"/>
+      <c r="JG196" s="28"/>
+      <c r="JM196" s="28"/>
+      <c r="JN196" s="28"/>
+      <c r="JT196" s="28"/>
+      <c r="JU196" s="28"/>
+      <c r="KA196" s="28"/>
+      <c r="KB196" s="28"/>
+      <c r="KH196" s="28"/>
+      <c r="KI196" s="28"/>
+      <c r="KO196" s="28"/>
+      <c r="KP196" s="28"/>
+      <c r="KV196" s="28"/>
+      <c r="KW196" s="28"/>
+      <c r="LC196" s="28"/>
+      <c r="LD196" s="28"/>
+      <c r="LJ196" s="28"/>
+      <c r="LK196" s="28"/>
+    </row>
+    <row r="197" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="25"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="5"/>
+      <c r="N197" s="28"/>
+      <c r="O197" s="28"/>
+      <c r="U197" s="28"/>
+      <c r="V197" s="28"/>
+      <c r="AB197" s="28"/>
+      <c r="AC197" s="28"/>
+      <c r="AI197" s="28"/>
+      <c r="AJ197" s="28"/>
+      <c r="AP197" s="28"/>
+      <c r="AQ197" s="28"/>
+      <c r="AW197" s="28"/>
+      <c r="AX197" s="28"/>
+      <c r="BD197" s="28"/>
+      <c r="BE197" s="28"/>
+      <c r="BK197" s="28"/>
+      <c r="BL197" s="28"/>
+      <c r="BR197" s="28"/>
+      <c r="BS197" s="28"/>
+      <c r="BY197" s="28"/>
+      <c r="BZ197" s="28"/>
+      <c r="CE197" s="38"/>
+      <c r="CF197" s="28"/>
+      <c r="CG197" s="28"/>
+      <c r="CM197" s="28"/>
+      <c r="CN197" s="28"/>
+      <c r="CT197" s="28"/>
+      <c r="CU197" s="28"/>
+      <c r="DA197" s="28"/>
+      <c r="DB197" s="28"/>
+      <c r="DH197" s="28"/>
+      <c r="DI197" s="28"/>
+      <c r="DO197" s="28"/>
+      <c r="DP197" s="28"/>
+      <c r="DV197" s="28"/>
+      <c r="DW197" s="28"/>
+      <c r="EC197" s="28"/>
+      <c r="ED197" s="28"/>
+      <c r="EJ197" s="28"/>
+      <c r="EK197" s="28"/>
+      <c r="EQ197" s="28"/>
+      <c r="ER197" s="28"/>
+      <c r="EX197" s="28"/>
+      <c r="EY197" s="28"/>
+      <c r="FE197" s="28"/>
+      <c r="FF197" s="28"/>
+      <c r="FL197" s="28"/>
+      <c r="FM197" s="28"/>
+      <c r="FS197" s="28"/>
+      <c r="FT197" s="28"/>
+      <c r="FZ197" s="28"/>
+      <c r="GA197" s="28"/>
+      <c r="GG197" s="28"/>
+      <c r="GH197" s="28"/>
+      <c r="GN197" s="28"/>
+      <c r="GO197" s="28"/>
+      <c r="GU197" s="28"/>
+      <c r="GV197" s="28"/>
+      <c r="HB197" s="28"/>
+      <c r="HC197" s="28"/>
+      <c r="HI197" s="28"/>
+      <c r="HJ197" s="28"/>
+      <c r="HP197" s="28"/>
+      <c r="HQ197" s="28"/>
+      <c r="HW197" s="28"/>
+      <c r="HX197" s="28"/>
+      <c r="ID197" s="28"/>
+      <c r="IE197" s="28"/>
+      <c r="IK197" s="28"/>
+      <c r="IL197" s="28"/>
+      <c r="IR197" s="28"/>
+      <c r="IS197" s="28"/>
+      <c r="IY197" s="28"/>
+      <c r="IZ197" s="28"/>
+      <c r="JF197" s="28"/>
+      <c r="JG197" s="28"/>
+      <c r="JM197" s="28"/>
+      <c r="JN197" s="28"/>
+      <c r="JT197" s="28"/>
+      <c r="JU197" s="28"/>
+      <c r="KA197" s="28"/>
+      <c r="KB197" s="28"/>
+      <c r="KH197" s="28"/>
+      <c r="KI197" s="28"/>
+      <c r="KO197" s="28"/>
+      <c r="KP197" s="28"/>
+      <c r="KV197" s="28"/>
+      <c r="KW197" s="28"/>
+      <c r="LC197" s="28"/>
+      <c r="LD197" s="28"/>
+      <c r="LJ197" s="28"/>
+      <c r="LK197" s="28"/>
+    </row>
+    <row r="198" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="25"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="5"/>
+      <c r="N198" s="28"/>
+      <c r="O198" s="28"/>
+      <c r="U198" s="28"/>
+      <c r="V198" s="28"/>
+      <c r="AB198" s="28"/>
+      <c r="AC198" s="28"/>
+      <c r="AI198" s="28"/>
+      <c r="AJ198" s="28"/>
+      <c r="AP198" s="28"/>
+      <c r="AQ198" s="28"/>
+      <c r="AW198" s="28"/>
+      <c r="AX198" s="28"/>
+      <c r="BD198" s="28"/>
+      <c r="BE198" s="28"/>
+      <c r="BK198" s="28"/>
+      <c r="BL198" s="28"/>
+      <c r="BR198" s="28"/>
+      <c r="BS198" s="28"/>
+      <c r="BY198" s="28"/>
+      <c r="BZ198" s="28"/>
+      <c r="CE198" s="38"/>
+      <c r="CF198" s="28"/>
+      <c r="CG198" s="28"/>
+      <c r="CM198" s="28"/>
+      <c r="CN198" s="28"/>
+      <c r="CT198" s="28"/>
+      <c r="CU198" s="28"/>
+      <c r="DA198" s="28"/>
+      <c r="DB198" s="28"/>
+      <c r="DH198" s="28"/>
+      <c r="DI198" s="28"/>
+      <c r="DO198" s="28"/>
+      <c r="DP198" s="28"/>
+      <c r="DV198" s="28"/>
+      <c r="DW198" s="28"/>
+      <c r="EC198" s="28"/>
+      <c r="ED198" s="28"/>
+      <c r="EJ198" s="28"/>
+      <c r="EK198" s="28"/>
+      <c r="EQ198" s="28"/>
+      <c r="ER198" s="28"/>
+      <c r="EX198" s="28"/>
+      <c r="EY198" s="28"/>
+      <c r="FE198" s="28"/>
+      <c r="FF198" s="28"/>
+      <c r="FL198" s="28"/>
+      <c r="FM198" s="28"/>
+      <c r="FS198" s="28"/>
+      <c r="FT198" s="28"/>
+      <c r="FZ198" s="28"/>
+      <c r="GA198" s="28"/>
+      <c r="GG198" s="28"/>
+      <c r="GH198" s="28"/>
+      <c r="GN198" s="28"/>
+      <c r="GO198" s="28"/>
+      <c r="GU198" s="28"/>
+      <c r="GV198" s="28"/>
+      <c r="HB198" s="28"/>
+      <c r="HC198" s="28"/>
+      <c r="HI198" s="28"/>
+      <c r="HJ198" s="28"/>
+      <c r="HP198" s="28"/>
+      <c r="HQ198" s="28"/>
+      <c r="HW198" s="28"/>
+      <c r="HX198" s="28"/>
+      <c r="ID198" s="28"/>
+      <c r="IE198" s="28"/>
+      <c r="IK198" s="28"/>
+      <c r="IL198" s="28"/>
+      <c r="IR198" s="28"/>
+      <c r="IS198" s="28"/>
+      <c r="IY198" s="28"/>
+      <c r="IZ198" s="28"/>
+      <c r="JF198" s="28"/>
+      <c r="JG198" s="28"/>
+      <c r="JM198" s="28"/>
+      <c r="JN198" s="28"/>
+      <c r="JT198" s="28"/>
+      <c r="JU198" s="28"/>
+      <c r="KA198" s="28"/>
+      <c r="KB198" s="28"/>
+      <c r="KH198" s="28"/>
+      <c r="KI198" s="28"/>
+      <c r="KO198" s="28"/>
+      <c r="KP198" s="28"/>
+      <c r="KV198" s="28"/>
+      <c r="KW198" s="28"/>
+      <c r="LC198" s="28"/>
+      <c r="LD198" s="28"/>
+      <c r="LJ198" s="28"/>
+      <c r="LK198" s="28"/>
+    </row>
+    <row r="199" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="25"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="5"/>
+      <c r="N199" s="28"/>
+      <c r="O199" s="28"/>
+      <c r="U199" s="28"/>
+      <c r="V199" s="28"/>
+      <c r="AB199" s="28"/>
+      <c r="AC199" s="28"/>
+      <c r="AI199" s="28"/>
+      <c r="AJ199" s="28"/>
+      <c r="AP199" s="28"/>
+      <c r="AQ199" s="28"/>
+      <c r="AW199" s="28"/>
+      <c r="AX199" s="28"/>
+      <c r="BD199" s="28"/>
+      <c r="BE199" s="28"/>
+      <c r="BK199" s="28"/>
+      <c r="BL199" s="28"/>
+      <c r="BR199" s="28"/>
+      <c r="BS199" s="28"/>
+      <c r="BY199" s="28"/>
+      <c r="BZ199" s="28"/>
+      <c r="CE199" s="38"/>
+      <c r="CF199" s="28"/>
+      <c r="CG199" s="28"/>
+      <c r="CM199" s="28"/>
+      <c r="CN199" s="28"/>
+      <c r="CT199" s="28"/>
+      <c r="CU199" s="28"/>
+      <c r="DA199" s="28"/>
+      <c r="DB199" s="28"/>
+      <c r="DH199" s="28"/>
+      <c r="DI199" s="28"/>
+      <c r="DO199" s="28"/>
+      <c r="DP199" s="28"/>
+      <c r="DV199" s="28"/>
+      <c r="DW199" s="28"/>
+      <c r="EC199" s="28"/>
+      <c r="ED199" s="28"/>
+      <c r="EJ199" s="28"/>
+      <c r="EK199" s="28"/>
+      <c r="EQ199" s="28"/>
+      <c r="ER199" s="28"/>
+      <c r="EX199" s="28"/>
+      <c r="EY199" s="28"/>
+      <c r="FE199" s="28"/>
+      <c r="FF199" s="28"/>
+      <c r="FL199" s="28"/>
+      <c r="FM199" s="28"/>
+      <c r="FS199" s="28"/>
+      <c r="FT199" s="28"/>
+      <c r="FZ199" s="28"/>
+      <c r="GA199" s="28"/>
+      <c r="GG199" s="28"/>
+      <c r="GH199" s="28"/>
+      <c r="GN199" s="28"/>
+      <c r="GO199" s="28"/>
+      <c r="GU199" s="28"/>
+      <c r="GV199" s="28"/>
+      <c r="HB199" s="28"/>
+      <c r="HC199" s="28"/>
+      <c r="HI199" s="28"/>
+      <c r="HJ199" s="28"/>
+      <c r="HP199" s="28"/>
+      <c r="HQ199" s="28"/>
+      <c r="HW199" s="28"/>
+      <c r="HX199" s="28"/>
+      <c r="ID199" s="28"/>
+      <c r="IE199" s="28"/>
+      <c r="IK199" s="28"/>
+      <c r="IL199" s="28"/>
+      <c r="IR199" s="28"/>
+      <c r="IS199" s="28"/>
+      <c r="IY199" s="28"/>
+      <c r="IZ199" s="28"/>
+      <c r="JF199" s="28"/>
+      <c r="JG199" s="28"/>
+      <c r="JM199" s="28"/>
+      <c r="JN199" s="28"/>
+      <c r="JT199" s="28"/>
+      <c r="JU199" s="28"/>
+      <c r="KA199" s="28"/>
+      <c r="KB199" s="28"/>
+      <c r="KH199" s="28"/>
+      <c r="KI199" s="28"/>
+      <c r="KO199" s="28"/>
+      <c r="KP199" s="28"/>
+      <c r="KV199" s="28"/>
+      <c r="KW199" s="28"/>
+      <c r="LC199" s="28"/>
+      <c r="LD199" s="28"/>
+      <c r="LJ199" s="28"/>
+      <c r="LK199" s="28"/>
+    </row>
+    <row r="200" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="25"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="5"/>
+      <c r="N200" s="28"/>
+      <c r="O200" s="28"/>
+      <c r="U200" s="28"/>
+      <c r="V200" s="28"/>
+      <c r="AB200" s="28"/>
+      <c r="AC200" s="28"/>
+      <c r="AI200" s="28"/>
+      <c r="AJ200" s="28"/>
+      <c r="AP200" s="28"/>
+      <c r="AQ200" s="28"/>
+      <c r="AW200" s="28"/>
+      <c r="AX200" s="28"/>
+      <c r="BD200" s="28"/>
+      <c r="BE200" s="28"/>
+      <c r="BK200" s="28"/>
+      <c r="BL200" s="28"/>
+      <c r="BR200" s="28"/>
+      <c r="BS200" s="28"/>
+      <c r="BY200" s="28"/>
+      <c r="BZ200" s="28"/>
+      <c r="CE200" s="38"/>
+      <c r="CF200" s="28"/>
+      <c r="CG200" s="28"/>
+      <c r="CM200" s="28"/>
+      <c r="CN200" s="28"/>
+      <c r="CT200" s="28"/>
+      <c r="CU200" s="28"/>
+      <c r="DA200" s="28"/>
+      <c r="DB200" s="28"/>
+      <c r="DH200" s="28"/>
+      <c r="DI200" s="28"/>
+      <c r="DO200" s="28"/>
+      <c r="DP200" s="28"/>
+      <c r="DV200" s="28"/>
+      <c r="DW200" s="28"/>
+      <c r="EC200" s="28"/>
+      <c r="ED200" s="28"/>
+      <c r="EJ200" s="28"/>
+      <c r="EK200" s="28"/>
+      <c r="EQ200" s="28"/>
+      <c r="ER200" s="28"/>
+      <c r="EX200" s="28"/>
+      <c r="EY200" s="28"/>
+      <c r="FE200" s="28"/>
+      <c r="FF200" s="28"/>
+      <c r="FL200" s="28"/>
+      <c r="FM200" s="28"/>
+      <c r="FS200" s="28"/>
+      <c r="FT200" s="28"/>
+      <c r="FZ200" s="28"/>
+      <c r="GA200" s="28"/>
+      <c r="GG200" s="28"/>
+      <c r="GH200" s="28"/>
+      <c r="GN200" s="28"/>
+      <c r="GO200" s="28"/>
+      <c r="GU200" s="28"/>
+      <c r="GV200" s="28"/>
+      <c r="HB200" s="28"/>
+      <c r="HC200" s="28"/>
+      <c r="HI200" s="28"/>
+      <c r="HJ200" s="28"/>
+      <c r="HP200" s="28"/>
+      <c r="HQ200" s="28"/>
+      <c r="HW200" s="28"/>
+      <c r="HX200" s="28"/>
+      <c r="ID200" s="28"/>
+      <c r="IE200" s="28"/>
+      <c r="IK200" s="28"/>
+      <c r="IL200" s="28"/>
+      <c r="IR200" s="28"/>
+      <c r="IS200" s="28"/>
+      <c r="IY200" s="28"/>
+      <c r="IZ200" s="28"/>
+      <c r="JF200" s="28"/>
+      <c r="JG200" s="28"/>
+      <c r="JM200" s="28"/>
+      <c r="JN200" s="28"/>
+      <c r="JT200" s="28"/>
+      <c r="JU200" s="28"/>
+      <c r="KA200" s="28"/>
+      <c r="KB200" s="28"/>
+      <c r="KH200" s="28"/>
+      <c r="KI200" s="28"/>
+      <c r="KO200" s="28"/>
+      <c r="KP200" s="28"/>
+      <c r="KV200" s="28"/>
+      <c r="KW200" s="28"/>
+      <c r="LC200" s="28"/>
+      <c r="LD200" s="28"/>
+      <c r="LJ200" s="28"/>
+      <c r="LK200" s="28"/>
+    </row>
+    <row r="201" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="25"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="5"/>
+      <c r="N201" s="28"/>
+      <c r="O201" s="28"/>
+      <c r="U201" s="28"/>
+      <c r="V201" s="28"/>
+      <c r="AB201" s="28"/>
+      <c r="AC201" s="28"/>
+      <c r="AI201" s="28"/>
+      <c r="AJ201" s="28"/>
+      <c r="AP201" s="28"/>
+      <c r="AQ201" s="28"/>
+      <c r="AW201" s="28"/>
+      <c r="AX201" s="28"/>
+      <c r="BD201" s="28"/>
+      <c r="BE201" s="28"/>
+      <c r="BK201" s="28"/>
+      <c r="BL201" s="28"/>
+      <c r="BR201" s="28"/>
+      <c r="BS201" s="28"/>
+      <c r="BY201" s="28"/>
+      <c r="BZ201" s="28"/>
+      <c r="CE201" s="38"/>
+      <c r="CF201" s="28"/>
+      <c r="CG201" s="28"/>
+      <c r="CM201" s="28"/>
+      <c r="CN201" s="28"/>
+      <c r="CT201" s="28"/>
+      <c r="CU201" s="28"/>
+      <c r="DA201" s="28"/>
+      <c r="DB201" s="28"/>
+      <c r="DH201" s="28"/>
+      <c r="DI201" s="28"/>
+      <c r="DO201" s="28"/>
+      <c r="DP201" s="28"/>
+      <c r="DV201" s="28"/>
+      <c r="DW201" s="28"/>
+      <c r="EC201" s="28"/>
+      <c r="ED201" s="28"/>
+      <c r="EJ201" s="28"/>
+      <c r="EK201" s="28"/>
+      <c r="EQ201" s="28"/>
+      <c r="ER201" s="28"/>
+      <c r="EX201" s="28"/>
+      <c r="EY201" s="28"/>
+      <c r="FE201" s="28"/>
+      <c r="FF201" s="28"/>
+      <c r="FL201" s="28"/>
+      <c r="FM201" s="28"/>
+      <c r="FS201" s="28"/>
+      <c r="FT201" s="28"/>
+      <c r="FZ201" s="28"/>
+      <c r="GA201" s="28"/>
+      <c r="GG201" s="28"/>
+      <c r="GH201" s="28"/>
+      <c r="GN201" s="28"/>
+      <c r="GO201" s="28"/>
+      <c r="GU201" s="28"/>
+      <c r="GV201" s="28"/>
+      <c r="HB201" s="28"/>
+      <c r="HC201" s="28"/>
+      <c r="HI201" s="28"/>
+      <c r="HJ201" s="28"/>
+      <c r="HP201" s="28"/>
+      <c r="HQ201" s="28"/>
+      <c r="HW201" s="28"/>
+      <c r="HX201" s="28"/>
+      <c r="ID201" s="28"/>
+      <c r="IE201" s="28"/>
+      <c r="IK201" s="28"/>
+      <c r="IL201" s="28"/>
+      <c r="IR201" s="28"/>
+      <c r="IS201" s="28"/>
+      <c r="IY201" s="28"/>
+      <c r="IZ201" s="28"/>
+      <c r="JF201" s="28"/>
+      <c r="JG201" s="28"/>
+      <c r="JM201" s="28"/>
+      <c r="JN201" s="28"/>
+      <c r="JT201" s="28"/>
+      <c r="JU201" s="28"/>
+      <c r="KA201" s="28"/>
+      <c r="KB201" s="28"/>
+      <c r="KH201" s="28"/>
+      <c r="KI201" s="28"/>
+      <c r="KO201" s="28"/>
+      <c r="KP201" s="28"/>
+      <c r="KV201" s="28"/>
+      <c r="KW201" s="28"/>
+      <c r="LC201" s="28"/>
+      <c r="LD201" s="28"/>
+      <c r="LJ201" s="28"/>
+      <c r="LK201" s="28"/>
+    </row>
+    <row r="202" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="25"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="5"/>
+      <c r="N202" s="28"/>
+      <c r="O202" s="28"/>
+      <c r="U202" s="28"/>
+      <c r="V202" s="28"/>
+      <c r="AB202" s="28"/>
+      <c r="AC202" s="28"/>
+      <c r="AI202" s="28"/>
+      <c r="AJ202" s="28"/>
+      <c r="AP202" s="28"/>
+      <c r="AQ202" s="28"/>
+      <c r="AW202" s="28"/>
+      <c r="AX202" s="28"/>
+      <c r="BD202" s="28"/>
+      <c r="BE202" s="28"/>
+      <c r="BK202" s="28"/>
+      <c r="BL202" s="28"/>
+      <c r="BR202" s="28"/>
+      <c r="BS202" s="28"/>
+      <c r="BY202" s="28"/>
+      <c r="BZ202" s="28"/>
+      <c r="CE202" s="38"/>
+      <c r="CF202" s="28"/>
+      <c r="CG202" s="28"/>
+      <c r="CM202" s="28"/>
+      <c r="CN202" s="28"/>
+      <c r="CT202" s="28"/>
+      <c r="CU202" s="28"/>
+      <c r="DA202" s="28"/>
+      <c r="DB202" s="28"/>
+      <c r="DH202" s="28"/>
+      <c r="DI202" s="28"/>
+      <c r="DO202" s="28"/>
+      <c r="DP202" s="28"/>
+      <c r="DV202" s="28"/>
+      <c r="DW202" s="28"/>
+      <c r="EC202" s="28"/>
+      <c r="ED202" s="28"/>
+      <c r="EJ202" s="28"/>
+      <c r="EK202" s="28"/>
+      <c r="EQ202" s="28"/>
+      <c r="ER202" s="28"/>
+      <c r="EX202" s="28"/>
+      <c r="EY202" s="28"/>
+      <c r="FE202" s="28"/>
+      <c r="FF202" s="28"/>
+      <c r="FL202" s="28"/>
+      <c r="FM202" s="28"/>
+      <c r="FS202" s="28"/>
+      <c r="FT202" s="28"/>
+      <c r="FZ202" s="28"/>
+      <c r="GA202" s="28"/>
+      <c r="GG202" s="28"/>
+      <c r="GH202" s="28"/>
+      <c r="GN202" s="28"/>
+      <c r="GO202" s="28"/>
+      <c r="GU202" s="28"/>
+      <c r="GV202" s="28"/>
+      <c r="HB202" s="28"/>
+      <c r="HC202" s="28"/>
+      <c r="HI202" s="28"/>
+      <c r="HJ202" s="28"/>
+      <c r="HP202" s="28"/>
+      <c r="HQ202" s="28"/>
+      <c r="HW202" s="28"/>
+      <c r="HX202" s="28"/>
+      <c r="ID202" s="28"/>
+      <c r="IE202" s="28"/>
+      <c r="IK202" s="28"/>
+      <c r="IL202" s="28"/>
+      <c r="IR202" s="28"/>
+      <c r="IS202" s="28"/>
+      <c r="IY202" s="28"/>
+      <c r="IZ202" s="28"/>
+      <c r="JF202" s="28"/>
+      <c r="JG202" s="28"/>
+      <c r="JM202" s="28"/>
+      <c r="JN202" s="28"/>
+      <c r="JT202" s="28"/>
+      <c r="JU202" s="28"/>
+      <c r="KA202" s="28"/>
+      <c r="KB202" s="28"/>
+      <c r="KH202" s="28"/>
+      <c r="KI202" s="28"/>
+      <c r="KO202" s="28"/>
+      <c r="KP202" s="28"/>
+      <c r="KV202" s="28"/>
+      <c r="KW202" s="28"/>
+      <c r="LC202" s="28"/>
+      <c r="LD202" s="28"/>
+      <c r="LJ202" s="28"/>
+      <c r="LK202" s="28"/>
+    </row>
+    <row r="203" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="25"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="5"/>
+      <c r="N203" s="28"/>
+      <c r="O203" s="28"/>
+      <c r="U203" s="28"/>
+      <c r="V203" s="28"/>
+      <c r="AB203" s="28"/>
+      <c r="AC203" s="28"/>
+      <c r="AI203" s="28"/>
+      <c r="AJ203" s="28"/>
+      <c r="AP203" s="28"/>
+      <c r="AQ203" s="28"/>
+      <c r="AW203" s="28"/>
+      <c r="AX203" s="28"/>
+      <c r="BD203" s="28"/>
+      <c r="BE203" s="28"/>
+      <c r="BK203" s="28"/>
+      <c r="BL203" s="28"/>
+      <c r="BR203" s="28"/>
+      <c r="BS203" s="28"/>
+      <c r="BY203" s="28"/>
+      <c r="BZ203" s="28"/>
+      <c r="CE203" s="38"/>
+      <c r="CF203" s="28"/>
+      <c r="CG203" s="28"/>
+      <c r="CM203" s="28"/>
+      <c r="CN203" s="28"/>
+      <c r="CT203" s="28"/>
+      <c r="CU203" s="28"/>
+      <c r="DA203" s="28"/>
+      <c r="DB203" s="28"/>
+      <c r="DH203" s="28"/>
+      <c r="DI203" s="28"/>
+      <c r="DO203" s="28"/>
+      <c r="DP203" s="28"/>
+      <c r="DV203" s="28"/>
+      <c r="DW203" s="28"/>
+      <c r="EC203" s="28"/>
+      <c r="ED203" s="28"/>
+      <c r="EJ203" s="28"/>
+      <c r="EK203" s="28"/>
+      <c r="EQ203" s="28"/>
+      <c r="ER203" s="28"/>
+      <c r="EX203" s="28"/>
+      <c r="EY203" s="28"/>
+      <c r="FE203" s="28"/>
+      <c r="FF203" s="28"/>
+      <c r="FL203" s="28"/>
+      <c r="FM203" s="28"/>
+      <c r="FS203" s="28"/>
+      <c r="FT203" s="28"/>
+      <c r="FZ203" s="28"/>
+      <c r="GA203" s="28"/>
+      <c r="GG203" s="28"/>
+      <c r="GH203" s="28"/>
+      <c r="GN203" s="28"/>
+      <c r="GO203" s="28"/>
+      <c r="GU203" s="28"/>
+      <c r="GV203" s="28"/>
+      <c r="HB203" s="28"/>
+      <c r="HC203" s="28"/>
+      <c r="HI203" s="28"/>
+      <c r="HJ203" s="28"/>
+      <c r="HP203" s="28"/>
+      <c r="HQ203" s="28"/>
+      <c r="HW203" s="28"/>
+      <c r="HX203" s="28"/>
+      <c r="ID203" s="28"/>
+      <c r="IE203" s="28"/>
+      <c r="IK203" s="28"/>
+      <c r="IL203" s="28"/>
+      <c r="IR203" s="28"/>
+      <c r="IS203" s="28"/>
+      <c r="IY203" s="28"/>
+      <c r="IZ203" s="28"/>
+      <c r="JF203" s="28"/>
+      <c r="JG203" s="28"/>
+      <c r="JM203" s="28"/>
+      <c r="JN203" s="28"/>
+      <c r="JT203" s="28"/>
+      <c r="JU203" s="28"/>
+      <c r="KA203" s="28"/>
+      <c r="KB203" s="28"/>
+      <c r="KH203" s="28"/>
+      <c r="KI203" s="28"/>
+      <c r="KO203" s="28"/>
+      <c r="KP203" s="28"/>
+      <c r="KV203" s="28"/>
+      <c r="KW203" s="28"/>
+      <c r="LC203" s="28"/>
+      <c r="LD203" s="28"/>
+      <c r="LJ203" s="28"/>
+      <c r="LK203" s="28"/>
+    </row>
+    <row r="204" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="25"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="5"/>
+      <c r="N204" s="28"/>
+      <c r="O204" s="28"/>
+      <c r="U204" s="28"/>
+      <c r="V204" s="28"/>
+      <c r="AB204" s="28"/>
+      <c r="AC204" s="28"/>
+      <c r="AI204" s="28"/>
+      <c r="AJ204" s="28"/>
+      <c r="AP204" s="28"/>
+      <c r="AQ204" s="28"/>
+      <c r="AW204" s="28"/>
+      <c r="AX204" s="28"/>
+      <c r="BD204" s="28"/>
+      <c r="BE204" s="28"/>
+      <c r="BK204" s="28"/>
+      <c r="BL204" s="28"/>
+      <c r="BR204" s="28"/>
+      <c r="BS204" s="28"/>
+      <c r="BY204" s="28"/>
+      <c r="BZ204" s="28"/>
+      <c r="CE204" s="38"/>
+      <c r="CF204" s="28"/>
+      <c r="CG204" s="28"/>
+      <c r="CM204" s="28"/>
+      <c r="CN204" s="28"/>
+      <c r="CT204" s="28"/>
+      <c r="CU204" s="28"/>
+      <c r="DA204" s="28"/>
+      <c r="DB204" s="28"/>
+      <c r="DH204" s="28"/>
+      <c r="DI204" s="28"/>
+      <c r="DO204" s="28"/>
+      <c r="DP204" s="28"/>
+      <c r="DV204" s="28"/>
+      <c r="DW204" s="28"/>
+      <c r="EC204" s="28"/>
+      <c r="ED204" s="28"/>
+      <c r="EJ204" s="28"/>
+      <c r="EK204" s="28"/>
+      <c r="EQ204" s="28"/>
+      <c r="ER204" s="28"/>
+      <c r="EX204" s="28"/>
+      <c r="EY204" s="28"/>
+      <c r="FE204" s="28"/>
+      <c r="FF204" s="28"/>
+      <c r="FL204" s="28"/>
+      <c r="FM204" s="28"/>
+      <c r="FS204" s="28"/>
+      <c r="FT204" s="28"/>
+      <c r="FZ204" s="28"/>
+      <c r="GA204" s="28"/>
+      <c r="GG204" s="28"/>
+      <c r="GH204" s="28"/>
+      <c r="GN204" s="28"/>
+      <c r="GO204" s="28"/>
+      <c r="GU204" s="28"/>
+      <c r="GV204" s="28"/>
+      <c r="HB204" s="28"/>
+      <c r="HC204" s="28"/>
+      <c r="HI204" s="28"/>
+      <c r="HJ204" s="28"/>
+      <c r="HP204" s="28"/>
+      <c r="HQ204" s="28"/>
+      <c r="HW204" s="28"/>
+      <c r="HX204" s="28"/>
+      <c r="ID204" s="28"/>
+      <c r="IE204" s="28"/>
+      <c r="IK204" s="28"/>
+      <c r="IL204" s="28"/>
+      <c r="IR204" s="28"/>
+      <c r="IS204" s="28"/>
+      <c r="IY204" s="28"/>
+      <c r="IZ204" s="28"/>
+      <c r="JF204" s="28"/>
+      <c r="JG204" s="28"/>
+      <c r="JM204" s="28"/>
+      <c r="JN204" s="28"/>
+      <c r="JT204" s="28"/>
+      <c r="JU204" s="28"/>
+      <c r="KA204" s="28"/>
+      <c r="KB204" s="28"/>
+      <c r="KH204" s="28"/>
+      <c r="KI204" s="28"/>
+      <c r="KO204" s="28"/>
+      <c r="KP204" s="28"/>
+      <c r="KV204" s="28"/>
+      <c r="KW204" s="28"/>
+      <c r="LC204" s="28"/>
+      <c r="LD204" s="28"/>
+      <c r="LJ204" s="28"/>
+      <c r="LK204" s="28"/>
+    </row>
+    <row r="205" spans="1:323" x14ac:dyDescent="0.25">
+      <c r="A205" s="14"/>
+      <c r="B205" s="14"/>
+      <c r="CE205" s="38"/>
+      <c r="CG205" s="38"/>
+      <c r="CI205" s="38"/>
+      <c r="CK205" s="38"/>
+    </row>
+    <row r="208" spans="1:323" x14ac:dyDescent="0.25">
+      <c r="C208" s="56"/>
     </row>
   </sheetData>
   <sortState ref="A130:LK164">
     <sortCondition descending="1" ref="B130:B164"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B192:C192"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="A125:C125"/>
     <mergeCell ref="B164:C164"/>
   </mergeCells>
-  <conditionalFormatting sqref="T31:T50 T52:T59 CL58:CL59 R58:R59 CV52:CV59 CO68:CR68 L68:M68 J68 Z76:AA77 W76:Y76 CV31:CV50 P8:T30 CV8:CZ30 AA8:AA12 BI8:BI42 BN8:BN42 BX8:BX46 R31:R54 S31:S59 P31:Q59 CW31:CZ59 CL14:CL54 CH8:CK59 CL8:CL12 BT8:BW65 BO8:BQ65 BM8:BM65 BJ8:BJ65 BF8:BH65 W8:Z65 AA14:AA65 BI44:BI65 BN44:BN65 BX48:BX65 CO8:CS67 J8:M67 W66:AA75 DX109:DX113 DX79:DX107 DX8:EB78 DY79:EB113 DQ8:DU190 DJ8:DN190 DC8:DG190 EE8:EI190 CA8:CE190 AY8:BC190 AR8:AV190 AK8:AO190 AD8:AH190 BF66:BJ190 BM66:BQ190 BT66:BX190 W78:AA190 P60:T190 CV60:CZ190 CO69:CS190 DX114:EB190 CH60:CL190 EL8:EP190 ES8:EW190 EZ8:FD190 FG8:FK190 FN8:FR190 FU8:FY190 GB8:GF190 GI8:GM190 GP8:GT190 GW8:HA190 J69:M190 HD129:HH190 HK129:HO190 HR129:HV190 HY129:IC190 IF129:IJ190 IM129:IQ190 IT129:IX190 JA129:JE190 JH129:JL190 JO129:JS190 JV129:JZ190 KC129:KG190 KJ129:KN190 KQ129:KU190 KX129:LB190 LE129:LI190">
+  <conditionalFormatting sqref="T31:T50 T52:T59 CL58:CL59 R58:R59 CV52:CV59 CO68:CR68 L68:M68 J68 Z76:AA77 W76:Y76 CV31:CV50 P8:T30 CV8:CZ30 AA8:AA12 BI8:BI42 BN8:BN42 BX8:BX46 R31:R54 S31:S59 P31:Q59 CW31:CZ59 CL14:CL54 CH8:CK59 CL8:CL12 BT8:BW65 BO8:BQ65 BM8:BM65 BJ8:BJ65 BF8:BH65 W8:Z65 AA14:AA65 BI44:BI65 BN44:BN65 BX48:BX65 CO8:CS67 J8:M67 W66:AA75 DX109:DX113 DX79:DX107 DX8:EB78 DY79:EB113 DQ8:DU204 DJ8:DN204 DC8:DG204 EE8:EI204 CA8:CE204 AY8:BC204 AR8:AV204 AK8:AO204 AD8:AH204 BF66:BJ204 BM66:BQ204 BT66:BX204 W78:AA204 P60:T204 CV60:CZ204 CO69:CS204 DX114:EB204 CH60:CL204 EL8:EP204 ES8:EW204 EZ8:FD204 FG8:FK204 FN8:FR204 FU8:FY204 GB8:GF204 GI8:GM204 GP8:GT204 GW8:HA204 J69:M204 HD129:HH204 HK129:HO204 HR129:HV204 HY129:IC204 IF129:IJ204 IM129:IQ204 IT129:IX204 JA129:JE204 JH129:JL204 JO129:JS204 JV129:JZ204 KC129:KG204 KJ129:KN204 KQ129:KU204 KX129:LB204 LE129:LI204">
     <cfRule type="expression" dxfId="176" priority="268">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -26657,7 +28095,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A191:HC191">
+  <conditionalFormatting sqref="A205:HC205">
     <cfRule type="expression" dxfId="168" priority="267">
       <formula>TRUE</formula>
     </cfRule>
@@ -26719,7 +28157,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD191:HJ191">
+  <conditionalFormatting sqref="HD205:HJ205">
     <cfRule type="expression" dxfId="150" priority="160">
       <formula>TRUE</formula>
     </cfRule>
@@ -26750,7 +28188,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK191:HQ191">
+  <conditionalFormatting sqref="HK205:HQ205">
     <cfRule type="expression" dxfId="141" priority="150">
       <formula>TRUE</formula>
     </cfRule>
@@ -26781,7 +28219,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR191:HX191">
+  <conditionalFormatting sqref="HR205:HX205">
     <cfRule type="expression" dxfId="132" priority="140">
       <formula>TRUE</formula>
     </cfRule>
@@ -26812,7 +28250,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HY191:IE191">
+  <conditionalFormatting sqref="HY205:IE205">
     <cfRule type="expression" dxfId="123" priority="130">
       <formula>TRUE</formula>
     </cfRule>
@@ -26843,7 +28281,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IF191:IL191">
+  <conditionalFormatting sqref="IF205:IL205">
     <cfRule type="expression" dxfId="114" priority="120">
       <formula>TRUE</formula>
     </cfRule>
@@ -26874,7 +28312,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM191:IS191">
+  <conditionalFormatting sqref="IM205:IS205">
     <cfRule type="expression" dxfId="105" priority="110">
       <formula>TRUE</formula>
     </cfRule>
@@ -26905,7 +28343,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IT191:IZ191">
+  <conditionalFormatting sqref="IT205:IZ205">
     <cfRule type="expression" dxfId="96" priority="100">
       <formula>TRUE</formula>
     </cfRule>
@@ -26936,7 +28374,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JA191:JG191">
+  <conditionalFormatting sqref="JA205:JG205">
     <cfRule type="expression" dxfId="87" priority="90">
       <formula>TRUE</formula>
     </cfRule>
@@ -26967,7 +28405,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH191:JN191">
+  <conditionalFormatting sqref="JH205:JN205">
     <cfRule type="expression" dxfId="78" priority="80">
       <formula>TRUE</formula>
     </cfRule>
@@ -26998,7 +28436,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JO191:JU191">
+  <conditionalFormatting sqref="JO205:JU205">
     <cfRule type="expression" dxfId="69" priority="70">
       <formula>TRUE</formula>
     </cfRule>
@@ -27029,7 +28467,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JV191:KB191">
+  <conditionalFormatting sqref="JV205:KB205">
     <cfRule type="expression" dxfId="60" priority="60">
       <formula>TRUE</formula>
     </cfRule>
@@ -27060,7 +28498,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="KC191:KI191">
+  <conditionalFormatting sqref="KC205:KI205">
     <cfRule type="expression" dxfId="51" priority="50">
       <formula>TRUE</formula>
     </cfRule>
@@ -27091,7 +28529,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="KJ191:KP191">
+  <conditionalFormatting sqref="KJ205:KP205">
     <cfRule type="expression" dxfId="42" priority="40">
       <formula>TRUE</formula>
     </cfRule>
@@ -27122,7 +28560,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="KQ191:KW191">
+  <conditionalFormatting sqref="KQ205:KW205">
     <cfRule type="expression" dxfId="33" priority="30">
       <formula>TRUE</formula>
     </cfRule>
@@ -27153,7 +28591,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="KX191:LD191">
+  <conditionalFormatting sqref="KX205:LD205">
     <cfRule type="expression" dxfId="24" priority="20">
       <formula>TRUE</formula>
     </cfRule>
@@ -27184,7 +28622,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="LE191:LK191">
+  <conditionalFormatting sqref="LE205:LK205">
     <cfRule type="expression" dxfId="15" priority="10">
       <formula>TRUE</formula>
     </cfRule>
@@ -27254,9 +28692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27331,10 +28769,10 @@
         <v>41690</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>161</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>162</v>
       </c>
       <c r="E6" s="61"/>
       <c r="AO6" s="35" t="s">
@@ -27349,16 +28787,16 @@
         <v>41705</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AO7" s="35" t="s">
         <v>56</v>
@@ -27372,16 +28810,16 @@
         <v>41705</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -27392,16 +28830,16 @@
         <v>41724</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>185</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>186</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -27412,10 +28850,10 @@
         <v>41738</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>56</v>
@@ -27429,16 +28867,16 @@
         <v>41751</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -27449,16 +28887,16 @@
         <v>41795</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>204</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -27469,16 +28907,16 @@
         <v>41810</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -27489,11 +28927,15 @@
         <v>41815</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>237</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="36">

--- a/APQM Gantt.xlsx
+++ b/APQM Gantt.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="APQM Gantt" sheetId="2" r:id="rId1"/>
-    <sheet name="Issues" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'APQM Gantt'!$A$7:$EK$130</definedName>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
   <si>
     <t>Plan</t>
   </si>
@@ -339,48 +338,6 @@
   </si>
   <si>
     <t>Filter in importer</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>Lorie Bergelin</t>
-  </si>
-  <si>
-    <t>Cannot open SalesDB2APQM.exe from her location.</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>On Hold</t>
-  </si>
-  <si>
-    <t>MS Access does not support x64, therefore I had to compile the solution for x86</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>APQM Issues</t>
   </si>
   <si>
     <t>Enable edit BOM Line. Adding fields: VendorQuoteEst, PurchasingComments, SalesComments</t>
@@ -674,12 +631,6 @@
     <t>Manfucaturing Location and Ship fields belongs to RFQ as well</t>
   </si>
   <si>
-    <t>Magdeline</t>
-  </si>
-  <si>
-    <t>Supplier is adding by itself when creating RFQs.</t>
-  </si>
-  <si>
     <t>Don’t delete records, just set to inactive</t>
   </si>
   <si>
@@ -731,25 +682,10 @@
     <t>UM in RFQ Summary</t>
   </si>
   <si>
-    <t>Failing when trying to upload files when creating RFQs</t>
-  </si>
-  <si>
-    <t>I had been moved some code to other folder, but I forgot changing I code line</t>
-  </si>
-  <si>
-    <t>RFQ form asks for credentials in Mozilla Firefox</t>
-  </si>
-  <si>
-    <t>There were some compaitiblity issues with javascript code when using  srcElement</t>
-  </si>
-  <si>
     <t>Know the last email used when a RFQ was sent</t>
   </si>
   <si>
     <t>Martha</t>
-  </si>
-  <si>
-    <t>Cannot set focus for create new vendor from popup</t>
   </si>
   <si>
     <t>Export Sales Report component processed without RFQ</t>
@@ -764,22 +700,10 @@
     <t>5 decimal places in RFQ form</t>
   </si>
   <si>
-    <t>I removed the overlay layer for Dialogs</t>
-  </si>
-  <si>
-    <t>Validation with black background in IE8</t>
-  </si>
-  <si>
     <t>Leyend when sending RFQ depending if Aerospacial or Automotive</t>
   </si>
   <si>
     <t>Move old data of Lead Times to new columns</t>
-  </si>
-  <si>
-    <t>EAUs are being imported only for the first 3 years</t>
-  </si>
-  <si>
-    <t>[% per Award Yr] column is not standarized, therefore my code was not found them</t>
   </si>
   <si>
     <t>Attachments in IE8</t>
@@ -801,12 +725,6 @@
   </si>
   <si>
     <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Console undefined in IE8</t>
-  </si>
-  <si>
-    <t>I avoied using this object.</t>
   </si>
   <si>
     <t>Everyone</t>
@@ -872,12 +790,6 @@
     <t>At the end</t>
   </si>
   <si>
-    <t>EAU is not being multiplied when creating a new RFQ.</t>
-  </si>
-  <si>
-    <t>I had forgotten to make this when I change the structure about EAUs.</t>
-  </si>
-  <si>
     <t>Be able to combine SIFs and quote unique components summarizing qty</t>
   </si>
   <si>
@@ -899,9 +811,6 @@
     <t>Add LN column to BOM Screen</t>
   </si>
   <si>
-    <t>HTML Report summing all eaus</t>
-  </si>
-  <si>
     <t>Not programmed</t>
   </si>
   <si>
@@ -921,7 +830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1030,20 +939,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1085,20 +980,6 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1263,7 +1144,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,28 +1242,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1394,16 +1260,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
@@ -1424,7 +1290,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,35 +1302,17 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,135 +1331,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="177">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="170">
     <dxf>
       <fill>
         <patternFill>
@@ -4010,21 +3730,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F238" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A4:F238"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="#" dataDxfId="5"/>
-    <tableColumn id="2" name="Date" dataDxfId="4"/>
-    <tableColumn id="3" name="Creator" dataDxfId="3"/>
-    <tableColumn id="4" name="Issue" dataDxfId="2"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" name="Solution" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4278,11 +3983,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:323" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4290,9 +3995,9 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
@@ -4324,10 +4029,10 @@
       </c>
     </row>
     <row r="4" spans="1:323" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="44"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="32"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -4335,23 +4040,23 @@
     </row>
     <row r="5" spans="1:323" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="46" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="11"/>
@@ -6303,7 +6008,7 @@
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="29">
@@ -6419,7 +6124,7 @@
       <c r="B9" s="26">
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="29">
@@ -6462,7 +6167,7 @@
       <c r="CG9" s="28"/>
       <c r="CM9" s="28"/>
       <c r="CN9" s="28"/>
-      <c r="CS9" s="39"/>
+      <c r="CS9" s="34"/>
       <c r="CT9" s="28"/>
       <c r="CU9" s="28"/>
       <c r="DA9" s="28"/>
@@ -6537,13 +6242,13 @@
       <c r="B10" s="26">
         <v>5</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="29">
         <v>3</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="37">
         <v>1</v>
       </c>
       <c r="F10" s="13">
@@ -6653,7 +6358,7 @@
       <c r="B11" s="26">
         <v>4</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="29">
@@ -6769,11 +6474,11 @@
       <c r="B12" s="26">
         <v>5</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="13">
         <v>7</v>
       </c>
@@ -6881,7 +6586,7 @@
       <c r="B13" s="26">
         <v>4</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="29">
@@ -6904,7 +6609,7 @@
       <c r="R13"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
-      <c r="AA13" s="39"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
       <c r="AI13" s="28"/>
@@ -6923,7 +6628,7 @@
       <c r="BZ13" s="28"/>
       <c r="CF13" s="28"/>
       <c r="CG13" s="28"/>
-      <c r="CL13" s="39"/>
+      <c r="CL13" s="34"/>
       <c r="CM13" s="28"/>
       <c r="CN13" s="28"/>
       <c r="CT13" s="28"/>
@@ -7000,7 +6705,7 @@
       <c r="B14" s="26">
         <v>4</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="29">
@@ -7116,7 +6821,7 @@
       <c r="B15" s="26">
         <v>4</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="29">
@@ -7161,7 +6866,7 @@
       <c r="CN15" s="28"/>
       <c r="CT15" s="28"/>
       <c r="CU15" s="28"/>
-      <c r="CV15" s="39"/>
+      <c r="CV15" s="34"/>
       <c r="DA15" s="28"/>
       <c r="DB15" s="28"/>
       <c r="DH15" s="28"/>
@@ -7234,7 +6939,7 @@
       <c r="B16" s="26">
         <v>3</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="29">
@@ -7348,13 +7053,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="26"/>
-      <c r="C17" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="43"/>
+      <c r="C17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="38"/>
       <c r="F17" s="13">
         <v>14</v>
       </c>
@@ -7460,11 +7165,11 @@
         <v>20</v>
       </c>
       <c r="B18" s="26"/>
-      <c r="C18" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
+      <c r="C18" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="13">
         <v>16</v>
       </c>
@@ -7570,13 +7275,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="43"/>
+      <c r="C19" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="13">
         <v>17</v>
       </c>
@@ -7682,13 +7387,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="26"/>
-      <c r="C20" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="43"/>
+      <c r="C20" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="38"/>
       <c r="F20" s="13">
         <v>21</v>
       </c>
@@ -7791,12 +7496,12 @@
     </row>
     <row r="21" spans="1:323" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B21" s="26">
         <v>4</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="29">
@@ -7907,11 +7612,11 @@
     </row>
     <row r="22" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="40" t="s">
-        <v>94</v>
+      <c r="C22" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="13"/>
@@ -8022,8 +7727,8 @@
       <c r="B23" s="26">
         <v>3</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>64</v>
+      <c r="C23" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="29">
         <v>23</v>
@@ -8138,7 +7843,7 @@
       <c r="B24" s="26">
         <v>4</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="29">
@@ -8254,8 +7959,8 @@
       <c r="B25" s="26">
         <v>4</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>77</v>
+      <c r="C25" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="29">
         <v>7</v>
@@ -8370,7 +8075,7 @@
       <c r="B26" s="26">
         <v>4</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="29">
@@ -8486,7 +8191,7 @@
       <c r="B27" s="26">
         <v>3</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="29">
@@ -8598,8 +8303,8 @@
     <row r="28" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="40" t="s">
-        <v>81</v>
+      <c r="C28" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="13"/>
@@ -8708,8 +8413,8 @@
         <v>20</v>
       </c>
       <c r="B29" s="26"/>
-      <c r="C29" s="40" t="s">
-        <v>82</v>
+      <c r="C29" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="13"/>
@@ -8818,8 +8523,8 @@
         <v>24</v>
       </c>
       <c r="B30" s="26"/>
-      <c r="C30" s="40" t="s">
-        <v>83</v>
+      <c r="C30" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="13"/>
@@ -8930,7 +8635,7 @@
       <c r="B31" s="26">
         <v>4</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="29">
@@ -9044,8 +8749,8 @@
         <v>20</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="40" t="s">
-        <v>84</v>
+      <c r="C32" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="13"/>
@@ -9154,8 +8859,8 @@
         <v>18</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="40" t="s">
-        <v>85</v>
+      <c r="C33" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="13"/>
@@ -9264,8 +8969,8 @@
         <v>16</v>
       </c>
       <c r="B34" s="26"/>
-      <c r="C34" s="40" t="s">
-        <v>86</v>
+      <c r="C34" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="13"/>
@@ -9374,8 +9079,8 @@
         <v>25</v>
       </c>
       <c r="B35" s="26"/>
-      <c r="C35" s="40" t="s">
-        <v>87</v>
+      <c r="C35" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="13"/>
@@ -9484,8 +9189,8 @@
         <v>25</v>
       </c>
       <c r="B36" s="26"/>
-      <c r="C36" s="40" t="s">
-        <v>88</v>
+      <c r="C36" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="13"/>
@@ -9594,8 +9299,8 @@
         <v>20</v>
       </c>
       <c r="B37" s="26"/>
-      <c r="C37" s="40" t="s">
-        <v>89</v>
+      <c r="C37" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="13"/>
@@ -9706,7 +9411,7 @@
       <c r="B38" s="26">
         <v>2</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="29">
@@ -9822,7 +9527,7 @@
       <c r="B39" s="26">
         <v>4</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="29">
@@ -9936,8 +9641,8 @@
         <v>25</v>
       </c>
       <c r="B40" s="26"/>
-      <c r="C40" s="40" t="s">
-        <v>95</v>
+      <c r="C40" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="13"/>
@@ -10046,8 +9751,8 @@
         <v>25</v>
       </c>
       <c r="B41" s="26"/>
-      <c r="C41" s="40" t="s">
-        <v>96</v>
+      <c r="C41" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="13"/>
@@ -10156,8 +9861,8 @@
         <v>16</v>
       </c>
       <c r="B42" s="26"/>
-      <c r="C42" s="40" t="s">
-        <v>97</v>
+      <c r="C42" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="13"/>
@@ -10266,8 +9971,8 @@
         <v>18</v>
       </c>
       <c r="B43" s="26"/>
-      <c r="C43" s="40" t="s">
-        <v>99</v>
+      <c r="C43" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="13"/>
@@ -10297,7 +10002,7 @@
       <c r="BI43"/>
       <c r="BK43" s="28"/>
       <c r="BL43" s="28"/>
-      <c r="BN43" s="39"/>
+      <c r="BN43" s="34"/>
       <c r="BR43" s="28"/>
       <c r="BS43" s="28"/>
       <c r="BY43" s="28"/>
@@ -10375,11 +10080,11 @@
     </row>
     <row r="44" spans="1:323" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B44" s="26"/>
-      <c r="C44" s="40" t="s">
-        <v>98</v>
+      <c r="C44" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="13"/>
@@ -10488,8 +10193,8 @@
         <v>25</v>
       </c>
       <c r="B45" s="26"/>
-      <c r="C45" s="40" t="s">
-        <v>100</v>
+      <c r="C45" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="13"/>
@@ -10598,8 +10303,8 @@
         <v>25</v>
       </c>
       <c r="B46" s="26"/>
-      <c r="C46" s="40" t="s">
-        <v>101</v>
+      <c r="C46" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="13"/>
@@ -10708,8 +10413,8 @@
         <v>18</v>
       </c>
       <c r="B47" s="26"/>
-      <c r="C47" s="40" t="s">
-        <v>102</v>
+      <c r="C47" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="13"/>
@@ -10740,7 +10445,7 @@
       <c r="BL47" s="28"/>
       <c r="BR47" s="28"/>
       <c r="BS47" s="28"/>
-      <c r="BX47" s="39"/>
+      <c r="BX47" s="34"/>
       <c r="BY47" s="28"/>
       <c r="BZ47" s="28"/>
       <c r="CF47" s="28"/>
@@ -10819,8 +10524,8 @@
         <v>18</v>
       </c>
       <c r="B48" s="26"/>
-      <c r="C48" s="40" t="s">
-        <v>103</v>
+      <c r="C48" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="13"/>
@@ -10929,8 +10634,8 @@
         <v>18</v>
       </c>
       <c r="B49" s="26"/>
-      <c r="C49" s="40" t="s">
-        <v>104</v>
+      <c r="C49" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="13"/>
@@ -11039,8 +10744,8 @@
         <v>18</v>
       </c>
       <c r="B50" s="26"/>
-      <c r="C50" s="40" t="s">
-        <v>105</v>
+      <c r="C50" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="13"/>
@@ -11151,7 +10856,7 @@
       <c r="B51" s="26">
         <v>3</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="29">
@@ -11265,8 +10970,8 @@
         <v>16</v>
       </c>
       <c r="B52" s="26"/>
-      <c r="C52" s="40" t="s">
-        <v>80</v>
+      <c r="C52" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="13"/>
@@ -11375,8 +11080,8 @@
         <v>18</v>
       </c>
       <c r="B53" s="26"/>
-      <c r="C53" s="40" t="s">
-        <v>106</v>
+      <c r="C53" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="13"/>
@@ -11485,8 +11190,8 @@
         <v>24</v>
       </c>
       <c r="B54" s="26"/>
-      <c r="C54" s="40" t="s">
-        <v>69</v>
+      <c r="C54" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="13">
@@ -11597,8 +11302,8 @@
         <v>15</v>
       </c>
       <c r="B55" s="26"/>
-      <c r="C55" s="40" t="s">
-        <v>68</v>
+      <c r="C55" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="13">
@@ -11709,8 +11414,8 @@
         <v>24</v>
       </c>
       <c r="B56" s="26"/>
-      <c r="C56" s="40" t="s">
-        <v>107</v>
+      <c r="C56" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="13"/>
@@ -11819,8 +11524,8 @@
         <v>20</v>
       </c>
       <c r="B57" s="26"/>
-      <c r="C57" s="40" t="s">
-        <v>108</v>
+      <c r="C57" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="13"/>
@@ -11931,7 +11636,7 @@
       <c r="B58" s="26">
         <v>3</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="29">
@@ -12047,8 +11752,8 @@
       <c r="B59" s="26">
         <v>3</v>
       </c>
-      <c r="C59" s="47" t="s">
-        <v>65</v>
+      <c r="C59" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="D59" s="29">
         <v>21</v>
@@ -12163,7 +11868,7 @@
       <c r="B60" s="26">
         <v>1</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="29">
@@ -12277,8 +11982,8 @@
         <v>20</v>
       </c>
       <c r="B61" s="26"/>
-      <c r="C61" s="40" t="s">
-        <v>67</v>
+      <c r="C61" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="13">
@@ -12389,8 +12094,8 @@
         <v>27</v>
       </c>
       <c r="B62" s="26"/>
-      <c r="C62" s="40" t="s">
-        <v>70</v>
+      <c r="C62" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="13"/>
@@ -12499,8 +12204,8 @@
         <v>20</v>
       </c>
       <c r="B63" s="26"/>
-      <c r="C63" s="40" t="s">
-        <v>66</v>
+      <c r="C63" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="13">
@@ -12611,8 +12316,8 @@
         <v>16</v>
       </c>
       <c r="B64" s="26"/>
-      <c r="C64" s="40" t="s">
-        <v>109</v>
+      <c r="C64" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="13">
@@ -12723,8 +12428,8 @@
         <v>27</v>
       </c>
       <c r="B65" s="26"/>
-      <c r="C65" s="40" t="s">
-        <v>71</v>
+      <c r="C65" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="13"/>
@@ -12835,7 +12540,7 @@
       <c r="B66" s="26">
         <v>4</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="29">
@@ -12949,7 +12654,7 @@
       <c r="B67" s="26">
         <v>3</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="29">
@@ -13059,7 +12764,7 @@
     <row r="68" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="26"/>
-      <c r="C68" s="40"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="29"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -13257,11 +12962,11 @@
       <c r="LK69" s="28"/>
     </row>
     <row r="70" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
+      <c r="A70" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="29"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -13365,8 +13070,8 @@
       <c r="B71" s="26">
         <v>3</v>
       </c>
-      <c r="C71" s="47" t="s">
-        <v>79</v>
+      <c r="C71" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="D71" s="29">
         <v>94</v>
@@ -13481,8 +13186,8 @@
       <c r="B72" s="26">
         <v>3</v>
       </c>
-      <c r="C72" s="40" t="s">
-        <v>72</v>
+      <c r="C72" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="D72" s="29">
         <v>94</v>
@@ -13597,8 +13302,8 @@
       <c r="B73" s="26">
         <v>3</v>
       </c>
-      <c r="C73" s="40" t="s">
-        <v>113</v>
+      <c r="C73" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="D73" s="29">
         <v>94</v>
@@ -13713,8 +13418,8 @@
       <c r="B74" s="26">
         <v>3</v>
       </c>
-      <c r="C74" s="52" t="s">
-        <v>75</v>
+      <c r="C74" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="D74" s="29">
         <v>95</v>
@@ -13829,8 +13534,8 @@
       <c r="B75" s="26">
         <v>3</v>
       </c>
-      <c r="C75" s="52" t="s">
-        <v>114</v>
+      <c r="C75" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="D75" s="29">
         <v>95</v>
@@ -13945,8 +13650,8 @@
       <c r="B76" s="26">
         <v>3</v>
       </c>
-      <c r="C76" s="52" t="s">
-        <v>73</v>
+      <c r="C76" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="D76" s="29">
         <v>95</v>
@@ -14061,7 +13766,7 @@
       <c r="B77" s="26">
         <v>3</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="29">
@@ -14083,9 +13788,9 @@
       <c r="O77" s="28"/>
       <c r="U77" s="28"/>
       <c r="V77" s="28"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="48"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="43"/>
       <c r="AB77" s="28"/>
       <c r="AC77" s="28"/>
       <c r="AI77" s="28"/>
@@ -14180,8 +13885,8 @@
       <c r="B78" s="26">
         <v>3</v>
       </c>
-      <c r="C78" s="40" t="s">
-        <v>78</v>
+      <c r="C78" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="D78" s="29">
         <v>98</v>
@@ -14296,7 +14001,7 @@
       <c r="B79" s="26">
         <v>3</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="29">
@@ -14406,13 +14111,13 @@
       <c r="B80" s="26">
         <v>3</v>
       </c>
-      <c r="C80" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="E80" s="58"/>
+      <c r="C80" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="53"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="5">
@@ -14616,8 +14321,8 @@
       <c r="B82" s="26">
         <v>1</v>
       </c>
-      <c r="C82" s="50" t="s">
-        <v>112</v>
+      <c r="C82" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="D82" s="29">
         <v>119</v>
@@ -14726,8 +14431,8 @@
       <c r="B83" s="26">
         <v>1</v>
       </c>
-      <c r="C83" s="50" t="s">
-        <v>110</v>
+      <c r="C83" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="D83" s="29">
         <v>126</v>
@@ -15030,11 +14735,11 @@
       <c r="LK85" s="28"/>
     </row>
     <row r="86" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
+      <c r="A86" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="29"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -15136,8 +14841,8 @@
       <c r="B87" s="26">
         <v>5</v>
       </c>
-      <c r="C87" s="52" t="s">
-        <v>116</v>
+      <c r="C87" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="13"/>
@@ -15247,7 +14952,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="13"/>
@@ -15357,7 +15062,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="13"/>
@@ -15466,8 +15171,8 @@
       <c r="B90" s="26">
         <v>5</v>
       </c>
-      <c r="C90" s="52" t="s">
-        <v>119</v>
+      <c r="C90" s="47" t="s">
+        <v>105</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="13"/>
@@ -15577,7 +15282,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="13"/>
@@ -15610,7 +15315,7 @@
       <c r="BS91" s="28"/>
       <c r="BY91" s="28"/>
       <c r="BZ91" s="28"/>
-      <c r="CE91" s="38"/>
+      <c r="CE91" s="33"/>
       <c r="CF91" s="28"/>
       <c r="CG91" s="28"/>
       <c r="CM91" s="28"/>
@@ -15687,8 +15392,8 @@
       <c r="B92" s="26">
         <v>5</v>
       </c>
-      <c r="C92" s="52" t="s">
-        <v>115</v>
+      <c r="C92" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="13"/>
@@ -15797,8 +15502,8 @@
       <c r="B93" s="26">
         <v>5</v>
       </c>
-      <c r="C93" s="52" t="s">
-        <v>118</v>
+      <c r="C93" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="13"/>
@@ -15908,7 +15613,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="13"/>
@@ -15941,7 +15646,7 @@
       <c r="BS94" s="28"/>
       <c r="BY94" s="28"/>
       <c r="BZ94" s="28"/>
-      <c r="CE94" s="38"/>
+      <c r="CE94" s="33"/>
       <c r="CF94" s="28"/>
       <c r="CG94" s="28"/>
       <c r="CM94" s="28"/>
@@ -16018,8 +15723,8 @@
       <c r="B95" s="26">
         <v>4</v>
       </c>
-      <c r="C95" s="52" t="s">
-        <v>127</v>
+      <c r="C95" s="47" t="s">
+        <v>113</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="13"/>
@@ -16128,8 +15833,8 @@
       <c r="B96" s="26">
         <v>4</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>124</v>
+      <c r="C96" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="13"/>
@@ -16162,7 +15867,7 @@
       <c r="BS96" s="28"/>
       <c r="BY96" s="28"/>
       <c r="BZ96" s="28"/>
-      <c r="CE96" s="38"/>
+      <c r="CE96" s="33"/>
       <c r="CF96" s="28"/>
       <c r="CG96" s="28"/>
       <c r="CM96" s="28"/>
@@ -16239,8 +15944,8 @@
       <c r="B97" s="26">
         <v>4</v>
       </c>
-      <c r="C97" s="52" t="s">
-        <v>126</v>
+      <c r="C97" s="47" t="s">
+        <v>112</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="13"/>
@@ -16273,7 +15978,7 @@
       <c r="BS97" s="28"/>
       <c r="BY97" s="28"/>
       <c r="BZ97" s="28"/>
-      <c r="CE97" s="38"/>
+      <c r="CE97" s="33"/>
       <c r="CF97" s="28"/>
       <c r="CG97" s="28"/>
       <c r="CM97" s="28"/>
@@ -16350,8 +16055,8 @@
       <c r="B98" s="26">
         <v>3</v>
       </c>
-      <c r="C98" s="52" t="s">
-        <v>132</v>
+      <c r="C98" s="47" t="s">
+        <v>118</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="13"/>
@@ -16384,7 +16089,7 @@
       <c r="BS98" s="28"/>
       <c r="BY98" s="28"/>
       <c r="BZ98" s="28"/>
-      <c r="CE98" s="38"/>
+      <c r="CE98" s="33"/>
       <c r="CF98" s="28"/>
       <c r="CG98" s="28"/>
       <c r="CM98" s="28"/>
@@ -16461,8 +16166,8 @@
       <c r="B99" s="26">
         <v>3</v>
       </c>
-      <c r="C99" s="52" t="s">
-        <v>134</v>
+      <c r="C99" s="47" t="s">
+        <v>120</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="13"/>
@@ -16495,7 +16200,7 @@
       <c r="BS99" s="28"/>
       <c r="BY99" s="28"/>
       <c r="BZ99" s="28"/>
-      <c r="CE99" s="38"/>
+      <c r="CE99" s="33"/>
       <c r="CF99" s="28"/>
       <c r="CG99" s="28"/>
       <c r="CM99" s="28"/>
@@ -16572,8 +16277,8 @@
       <c r="B100" s="26">
         <v>1</v>
       </c>
-      <c r="C100" s="52" t="s">
-        <v>130</v>
+      <c r="C100" s="47" t="s">
+        <v>116</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="13"/>
@@ -16606,7 +16311,7 @@
       <c r="BS100" s="28"/>
       <c r="BY100" s="28"/>
       <c r="BZ100" s="28"/>
-      <c r="CE100" s="38"/>
+      <c r="CE100" s="33"/>
       <c r="CF100" s="28"/>
       <c r="CG100" s="28"/>
       <c r="CM100" s="28"/>
@@ -16683,8 +16388,8 @@
       <c r="B101" s="26">
         <v>1</v>
       </c>
-      <c r="C101" s="52" t="s">
-        <v>131</v>
+      <c r="C101" s="47" t="s">
+        <v>117</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="13"/>
@@ -16717,7 +16422,7 @@
       <c r="BS101" s="28"/>
       <c r="BY101" s="28"/>
       <c r="BZ101" s="28"/>
-      <c r="CE101" s="38"/>
+      <c r="CE101" s="33"/>
       <c r="CF101" s="28"/>
       <c r="CG101" s="28"/>
       <c r="CM101" s="28"/>
@@ -16794,8 +16499,8 @@
       <c r="B102" s="26">
         <v>1</v>
       </c>
-      <c r="C102" s="52" t="s">
-        <v>133</v>
+      <c r="C102" s="47" t="s">
+        <v>119</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="13"/>
@@ -16828,7 +16533,7 @@
       <c r="BS102" s="28"/>
       <c r="BY102" s="28"/>
       <c r="BZ102" s="28"/>
-      <c r="CE102" s="38"/>
+      <c r="CE102" s="33"/>
       <c r="CF102" s="28"/>
       <c r="CG102" s="28"/>
       <c r="CM102" s="28"/>
@@ -16905,8 +16610,8 @@
       <c r="B103" s="26">
         <v>1</v>
       </c>
-      <c r="C103" s="52" t="s">
-        <v>135</v>
+      <c r="C103" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="13"/>
@@ -16939,7 +16644,7 @@
       <c r="BS103" s="28"/>
       <c r="BY103" s="28"/>
       <c r="BZ103" s="28"/>
-      <c r="CE103" s="38"/>
+      <c r="CE103" s="33"/>
       <c r="CF103" s="28"/>
       <c r="CG103" s="28"/>
       <c r="CM103" s="28"/>
@@ -17017,7 +16722,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="13"/>
@@ -17050,7 +16755,7 @@
       <c r="BS104" s="28"/>
       <c r="BY104" s="28"/>
       <c r="BZ104" s="28"/>
-      <c r="CE104" s="38"/>
+      <c r="CE104" s="33"/>
       <c r="CF104" s="28"/>
       <c r="CG104" s="28"/>
       <c r="CM104" s="28"/>
@@ -17128,7 +16833,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="13"/>
@@ -17161,7 +16866,7 @@
       <c r="BS105" s="28"/>
       <c r="BY105" s="28"/>
       <c r="BZ105" s="28"/>
-      <c r="CE105" s="38"/>
+      <c r="CE105" s="33"/>
       <c r="CF105" s="28"/>
       <c r="CG105" s="28"/>
       <c r="CM105" s="28"/>
@@ -17238,8 +16943,8 @@
       <c r="B106" s="26">
         <v>2</v>
       </c>
-      <c r="C106" s="52" t="s">
-        <v>122</v>
+      <c r="C106" s="47" t="s">
+        <v>108</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="13"/>
@@ -17348,8 +17053,8 @@
       <c r="B107" s="26">
         <v>2</v>
       </c>
-      <c r="C107" s="52" t="s">
-        <v>140</v>
+      <c r="C107" s="47" t="s">
+        <v>126</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="13"/>
@@ -17382,7 +17087,7 @@
       <c r="BS107" s="28"/>
       <c r="BY107" s="28"/>
       <c r="BZ107" s="28"/>
-      <c r="CE107" s="38"/>
+      <c r="CE107" s="33"/>
       <c r="CF107" s="28"/>
       <c r="CG107" s="28"/>
       <c r="CM107" s="28"/>
@@ -17459,8 +17164,8 @@
       <c r="B108" s="26">
         <v>3</v>
       </c>
-      <c r="C108" s="52" t="s">
-        <v>144</v>
+      <c r="C108" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="13"/>
@@ -17493,7 +17198,7 @@
       <c r="BS108" s="28"/>
       <c r="BY108" s="28"/>
       <c r="BZ108" s="28"/>
-      <c r="CE108" s="38"/>
+      <c r="CE108" s="33"/>
       <c r="CF108" s="28"/>
       <c r="CG108" s="28"/>
       <c r="CM108" s="28"/>
@@ -17571,8 +17276,8 @@
       <c r="B109" s="26">
         <v>1</v>
       </c>
-      <c r="C109" s="52" t="s">
-        <v>129</v>
+      <c r="C109" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="13"/>
@@ -17605,7 +17310,7 @@
       <c r="BS109" s="28"/>
       <c r="BY109" s="28"/>
       <c r="BZ109" s="28"/>
-      <c r="CE109" s="38"/>
+      <c r="CE109" s="33"/>
       <c r="CF109" s="28"/>
       <c r="CG109" s="28"/>
       <c r="CM109" s="28"/>
@@ -17680,8 +17385,8 @@
     <row r="110" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="26"/>
-      <c r="C110" s="52" t="s">
-        <v>142</v>
+      <c r="C110" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="13"/>
@@ -17714,7 +17419,7 @@
       <c r="BS110" s="28"/>
       <c r="BY110" s="28"/>
       <c r="BZ110" s="28"/>
-      <c r="CE110" s="38"/>
+      <c r="CE110" s="33"/>
       <c r="CF110" s="28"/>
       <c r="CG110" s="28"/>
       <c r="CM110" s="28"/>
@@ -17791,8 +17496,8 @@
       <c r="B111" s="26">
         <v>3</v>
       </c>
-      <c r="C111" s="52" t="s">
-        <v>143</v>
+      <c r="C111" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="13"/>
@@ -17825,7 +17530,7 @@
       <c r="BS111" s="28"/>
       <c r="BY111" s="28"/>
       <c r="BZ111" s="28"/>
-      <c r="CE111" s="38"/>
+      <c r="CE111" s="33"/>
       <c r="CF111" s="28"/>
       <c r="CG111" s="28"/>
       <c r="CM111" s="28"/>
@@ -17900,8 +17605,8 @@
     <row r="112" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="26"/>
-      <c r="C112" s="52" t="s">
-        <v>145</v>
+      <c r="C112" s="47" t="s">
+        <v>131</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="13"/>
@@ -17934,7 +17639,7 @@
       <c r="BS112" s="28"/>
       <c r="BY112" s="28"/>
       <c r="BZ112" s="28"/>
-      <c r="CE112" s="38"/>
+      <c r="CE112" s="33"/>
       <c r="CF112" s="28"/>
       <c r="CG112" s="28"/>
       <c r="CM112" s="28"/>
@@ -18011,8 +17716,8 @@
       <c r="B113" s="26">
         <v>1</v>
       </c>
-      <c r="C113" s="52" t="s">
-        <v>139</v>
+      <c r="C113" s="47" t="s">
+        <v>125</v>
       </c>
       <c r="D113" s="29">
         <v>116</v>
@@ -18049,7 +17754,7 @@
       <c r="BS113" s="28"/>
       <c r="BY113" s="28"/>
       <c r="BZ113" s="28"/>
-      <c r="CE113" s="38"/>
+      <c r="CE113" s="33"/>
       <c r="CF113" s="28"/>
       <c r="CG113" s="28"/>
       <c r="CM113" s="28"/>
@@ -18124,8 +17829,8 @@
     <row r="114" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="26"/>
-      <c r="C114" s="52" t="s">
-        <v>149</v>
+      <c r="C114" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="13"/>
@@ -18158,7 +17863,7 @@
       <c r="BS114" s="28"/>
       <c r="BY114" s="28"/>
       <c r="BZ114" s="28"/>
-      <c r="CE114" s="38"/>
+      <c r="CE114" s="33"/>
       <c r="CF114" s="28"/>
       <c r="CG114" s="28"/>
       <c r="CM114" s="28"/>
@@ -18233,8 +17938,8 @@
     <row r="115" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
-      <c r="C115" s="52" t="s">
-        <v>155</v>
+      <c r="C115" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="13">
@@ -18269,7 +17974,7 @@
       <c r="BS115" s="28"/>
       <c r="BY115" s="28"/>
       <c r="BZ115" s="28"/>
-      <c r="CE115" s="38"/>
+      <c r="CE115" s="33"/>
       <c r="CF115" s="28"/>
       <c r="CG115" s="28"/>
       <c r="CM115" s="28"/>
@@ -18344,8 +18049,8 @@
     <row r="116" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
-      <c r="C116" s="52" t="s">
-        <v>157</v>
+      <c r="C116" s="47" t="s">
+        <v>143</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="13"/>
@@ -18378,7 +18083,7 @@
       <c r="BS116" s="28"/>
       <c r="BY116" s="28"/>
       <c r="BZ116" s="28"/>
-      <c r="CE116" s="38"/>
+      <c r="CE116" s="33"/>
       <c r="CF116" s="28"/>
       <c r="CG116" s="28"/>
       <c r="CM116" s="28"/>
@@ -18453,8 +18158,8 @@
     <row r="117" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="26"/>
-      <c r="C117" s="52" t="s">
-        <v>158</v>
+      <c r="C117" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="13"/>
@@ -18487,7 +18192,7 @@
       <c r="BS117" s="28"/>
       <c r="BY117" s="28"/>
       <c r="BZ117" s="28"/>
-      <c r="CE117" s="38"/>
+      <c r="CE117" s="33"/>
       <c r="CF117" s="28"/>
       <c r="CG117" s="28"/>
       <c r="CM117" s="28"/>
@@ -18562,8 +18267,8 @@
     <row r="118" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="52" t="s">
-        <v>154</v>
+      <c r="C118" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="13"/>
@@ -18596,7 +18301,7 @@
       <c r="BS118" s="28"/>
       <c r="BY118" s="28"/>
       <c r="BZ118" s="28"/>
-      <c r="CE118" s="38"/>
+      <c r="CE118" s="33"/>
       <c r="CF118" s="28"/>
       <c r="CG118" s="28"/>
       <c r="CM118" s="28"/>
@@ -18671,8 +18376,8 @@
     <row r="119" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="26"/>
-      <c r="C119" s="52" t="s">
-        <v>153</v>
+      <c r="C119" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="13"/>
@@ -18705,7 +18410,7 @@
       <c r="BS119" s="28"/>
       <c r="BY119" s="28"/>
       <c r="BZ119" s="28"/>
-      <c r="CE119" s="38"/>
+      <c r="CE119" s="33"/>
       <c r="CF119" s="28"/>
       <c r="CG119" s="28"/>
       <c r="CM119" s="28"/>
@@ -18780,8 +18485,8 @@
     <row r="120" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="26"/>
-      <c r="C120" s="52" t="s">
-        <v>156</v>
+      <c r="C120" s="47" t="s">
+        <v>142</v>
       </c>
       <c r="D120" s="29">
         <v>116</v>
@@ -18818,7 +18523,7 @@
       <c r="BS120" s="28"/>
       <c r="BY120" s="28"/>
       <c r="BZ120" s="28"/>
-      <c r="CE120" s="38"/>
+      <c r="CE120" s="33"/>
       <c r="CF120" s="28"/>
       <c r="CG120" s="28"/>
       <c r="CM120" s="28"/>
@@ -18893,8 +18598,8 @@
     <row r="121" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
-      <c r="C121" s="52" t="s">
-        <v>169</v>
+      <c r="C121" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="13"/>
@@ -18927,7 +18632,7 @@
       <c r="BS121" s="28"/>
       <c r="BY121" s="28"/>
       <c r="BZ121" s="28"/>
-      <c r="CE121" s="38"/>
+      <c r="CE121" s="33"/>
       <c r="CF121" s="28"/>
       <c r="CG121" s="28"/>
       <c r="CM121" s="28"/>
@@ -19002,8 +18707,8 @@
     <row r="122" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="52" t="s">
-        <v>170</v>
+      <c r="C122" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="13"/>
@@ -19036,7 +18741,7 @@
       <c r="BS122" s="28"/>
       <c r="BY122" s="28"/>
       <c r="BZ122" s="28"/>
-      <c r="CE122" s="38"/>
+      <c r="CE122" s="33"/>
       <c r="CF122" s="28"/>
       <c r="CG122" s="28"/>
       <c r="CM122" s="28"/>
@@ -19111,7 +18816,7 @@
     <row r="123" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="26"/>
-      <c r="C123" s="52"/>
+      <c r="C123" s="47"/>
       <c r="D123" s="29"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
@@ -19137,7 +18842,7 @@
       <c r="BS123" s="28"/>
       <c r="BY123" s="28"/>
       <c r="BZ123" s="28"/>
-      <c r="CE123" s="38"/>
+      <c r="CE123" s="33"/>
       <c r="CF123" s="28"/>
       <c r="CG123" s="28"/>
       <c r="CM123" s="28"/>
@@ -19212,7 +18917,7 @@
     <row r="124" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="26"/>
-      <c r="C124" s="52"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="29"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
@@ -19238,7 +18943,7 @@
       <c r="BS124" s="28"/>
       <c r="BY124" s="28"/>
       <c r="BZ124" s="28"/>
-      <c r="CE124" s="38"/>
+      <c r="CE124" s="33"/>
       <c r="CF124" s="28"/>
       <c r="CG124" s="28"/>
       <c r="CM124" s="28"/>
@@ -19311,11 +19016,11 @@
       <c r="LK124" s="28"/>
     </row>
     <row r="125" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="68"/>
-      <c r="C125" s="68"/>
+      <c r="A125" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="29"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -19341,7 +19046,7 @@
       <c r="BS125" s="28"/>
       <c r="BY125" s="28"/>
       <c r="BZ125" s="28"/>
-      <c r="CE125" s="38"/>
+      <c r="CE125" s="33"/>
       <c r="CF125" s="28"/>
       <c r="CG125" s="28"/>
       <c r="CM125" s="28"/>
@@ -19418,8 +19123,8 @@
       <c r="B126" s="26">
         <v>5</v>
       </c>
-      <c r="C126" s="55" t="s">
-        <v>199</v>
+      <c r="C126" s="50" t="s">
+        <v>174</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="13"/>
@@ -19452,7 +19157,7 @@
       <c r="BS126" s="28"/>
       <c r="BY126" s="28"/>
       <c r="BZ126" s="28"/>
-      <c r="CE126" s="38"/>
+      <c r="CE126" s="33"/>
       <c r="CF126" s="28"/>
       <c r="CG126" s="28"/>
       <c r="CM126" s="28"/>
@@ -19529,8 +19234,8 @@
       <c r="B127" s="26">
         <v>5</v>
       </c>
-      <c r="C127" s="55" t="s">
-        <v>177</v>
+      <c r="C127" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="13"/>
@@ -19563,7 +19268,7 @@
       <c r="BS127" s="28"/>
       <c r="BY127" s="28"/>
       <c r="BZ127" s="28"/>
-      <c r="CE127" s="38"/>
+      <c r="CE127" s="33"/>
       <c r="CF127" s="28"/>
       <c r="CG127" s="28"/>
       <c r="CM127" s="28"/>
@@ -19640,8 +19345,8 @@
       <c r="B128" s="26">
         <v>5</v>
       </c>
-      <c r="C128" s="55" t="s">
-        <v>196</v>
+      <c r="C128" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="13"/>
@@ -19674,7 +19379,7 @@
       <c r="BS128" s="28"/>
       <c r="BY128" s="28"/>
       <c r="BZ128" s="28"/>
-      <c r="CE128" s="38"/>
+      <c r="CE128" s="33"/>
       <c r="CF128" s="28"/>
       <c r="CG128" s="28"/>
       <c r="CM128" s="28"/>
@@ -19751,8 +19456,8 @@
       <c r="B129" s="26">
         <v>4</v>
       </c>
-      <c r="C129" s="55" t="s">
-        <v>187</v>
+      <c r="C129" s="50" t="s">
+        <v>166</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="13"/>
@@ -19785,7 +19490,7 @@
       <c r="BS129" s="28"/>
       <c r="BY129" s="28"/>
       <c r="BZ129" s="28"/>
-      <c r="CE129" s="38"/>
+      <c r="CE129" s="33"/>
       <c r="CF129" s="28"/>
       <c r="CG129" s="28"/>
       <c r="CM129" s="28"/>
@@ -19862,8 +19567,8 @@
       <c r="B130" s="26">
         <v>4</v>
       </c>
-      <c r="C130" s="55" t="s">
-        <v>165</v>
+      <c r="C130" s="50" t="s">
+        <v>149</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="13"/>
@@ -19896,7 +19601,7 @@
       <c r="BS130" s="28"/>
       <c r="BY130" s="28"/>
       <c r="BZ130" s="28"/>
-      <c r="CE130" s="38"/>
+      <c r="CE130" s="33"/>
       <c r="CF130" s="28"/>
       <c r="CG130" s="28"/>
       <c r="CM130" s="28"/>
@@ -19973,8 +19678,8 @@
       <c r="B131" s="26">
         <v>5</v>
       </c>
-      <c r="C131" s="55" t="s">
-        <v>238</v>
+      <c r="C131" s="50" t="s">
+        <v>208</v>
       </c>
       <c r="D131" s="29">
         <v>256</v>
@@ -20011,7 +19716,7 @@
       <c r="BS131" s="28"/>
       <c r="BY131" s="28"/>
       <c r="BZ131" s="28"/>
-      <c r="CE131" s="38"/>
+      <c r="CE131" s="33"/>
       <c r="CF131" s="28"/>
       <c r="CG131" s="28"/>
       <c r="CM131" s="28"/>
@@ -20088,8 +19793,8 @@
       <c r="B132" s="26">
         <v>5</v>
       </c>
-      <c r="C132" s="55" t="s">
-        <v>162</v>
+      <c r="C132" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="D132" s="29">
         <v>256</v>
@@ -20126,7 +19831,7 @@
       <c r="BS132" s="28"/>
       <c r="BY132" s="28"/>
       <c r="BZ132" s="28"/>
-      <c r="CE132" s="38"/>
+      <c r="CE132" s="33"/>
       <c r="CF132" s="28"/>
       <c r="CG132" s="28"/>
       <c r="CM132" s="28"/>
@@ -20203,8 +19908,8 @@
       <c r="B133" s="26">
         <v>5</v>
       </c>
-      <c r="C133" s="53" t="s">
-        <v>173</v>
+      <c r="C133" s="48" t="s">
+        <v>157</v>
       </c>
       <c r="D133" s="29">
         <v>259</v>
@@ -20237,7 +19942,7 @@
       <c r="BS133" s="28"/>
       <c r="BY133" s="28"/>
       <c r="BZ133" s="28"/>
-      <c r="CE133" s="38"/>
+      <c r="CE133" s="33"/>
       <c r="CF133" s="28"/>
       <c r="CG133" s="28"/>
       <c r="CM133" s="28"/>
@@ -20314,8 +20019,8 @@
       <c r="B134" s="26">
         <v>4</v>
       </c>
-      <c r="C134" s="53" t="s">
-        <v>159</v>
+      <c r="C134" s="48" t="s">
+        <v>145</v>
       </c>
       <c r="D134" s="29">
         <v>260</v>
@@ -20348,7 +20053,7 @@
       <c r="BS134" s="28"/>
       <c r="BY134" s="28"/>
       <c r="BZ134" s="28"/>
-      <c r="CE134" s="38"/>
+      <c r="CE134" s="33"/>
       <c r="CF134" s="28"/>
       <c r="CG134" s="28"/>
       <c r="CM134" s="28"/>
@@ -20425,8 +20130,8 @@
       <c r="B135" s="26">
         <v>4</v>
       </c>
-      <c r="C135" s="53" t="s">
-        <v>178</v>
+      <c r="C135" s="48" t="s">
+        <v>162</v>
       </c>
       <c r="D135" s="29">
         <v>260</v>
@@ -20459,7 +20164,7 @@
       <c r="BS135" s="28"/>
       <c r="BY135" s="28"/>
       <c r="BZ135" s="28"/>
-      <c r="CE135" s="38"/>
+      <c r="CE135" s="33"/>
       <c r="CF135" s="28"/>
       <c r="CG135" s="28"/>
       <c r="CM135" s="28"/>
@@ -20536,8 +20241,8 @@
       <c r="B136" s="26">
         <v>4</v>
       </c>
-      <c r="C136" s="53" t="s">
-        <v>183</v>
+      <c r="C136" s="48" t="s">
+        <v>163</v>
       </c>
       <c r="D136" s="29">
         <v>260</v>
@@ -20570,7 +20275,7 @@
       <c r="BS136" s="28"/>
       <c r="BY136" s="28"/>
       <c r="BZ136" s="28"/>
-      <c r="CE136" s="38"/>
+      <c r="CE136" s="33"/>
       <c r="CF136" s="28"/>
       <c r="CG136" s="28"/>
       <c r="CM136" s="28"/>
@@ -20647,8 +20352,8 @@
       <c r="B137" s="26">
         <v>4</v>
       </c>
-      <c r="C137" s="53" t="s">
-        <v>186</v>
+      <c r="C137" s="48" t="s">
+        <v>165</v>
       </c>
       <c r="D137" s="29">
         <v>261</v>
@@ -20681,7 +20386,7 @@
       <c r="BS137" s="28"/>
       <c r="BY137" s="28"/>
       <c r="BZ137" s="28"/>
-      <c r="CE137" s="38"/>
+      <c r="CE137" s="33"/>
       <c r="CF137" s="28"/>
       <c r="CG137" s="28"/>
       <c r="CM137" s="28"/>
@@ -20758,8 +20463,8 @@
       <c r="B138" s="26">
         <v>3</v>
       </c>
-      <c r="C138" s="53" t="s">
-        <v>150</v>
+      <c r="C138" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="D138" s="29">
         <v>261</v>
@@ -20792,7 +20497,7 @@
       <c r="BS138" s="28"/>
       <c r="BY138" s="28"/>
       <c r="BZ138" s="28"/>
-      <c r="CE138" s="38"/>
+      <c r="CE138" s="33"/>
       <c r="CF138" s="28"/>
       <c r="CG138" s="28"/>
       <c r="CM138" s="28"/>
@@ -20869,8 +20574,8 @@
       <c r="B139" s="26">
         <v>3</v>
       </c>
-      <c r="C139" s="53" t="s">
-        <v>192</v>
+      <c r="C139" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="D139" s="29">
         <v>262</v>
@@ -20903,7 +20608,7 @@
       <c r="BS139" s="28"/>
       <c r="BY139" s="28"/>
       <c r="BZ139" s="28"/>
-      <c r="CE139" s="38"/>
+      <c r="CE139" s="33"/>
       <c r="CF139" s="28"/>
       <c r="CG139" s="28"/>
       <c r="CM139" s="28"/>
@@ -20980,8 +20685,8 @@
       <c r="B140" s="26">
         <v>3</v>
       </c>
-      <c r="C140" s="53" t="s">
-        <v>166</v>
+      <c r="C140" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="D140" s="29">
         <v>262</v>
@@ -21014,7 +20719,7 @@
       <c r="BS140" s="28"/>
       <c r="BY140" s="28"/>
       <c r="BZ140" s="28"/>
-      <c r="CE140" s="38"/>
+      <c r="CE140" s="33"/>
       <c r="CF140" s="28"/>
       <c r="CG140" s="28"/>
       <c r="CM140" s="28"/>
@@ -21091,8 +20796,8 @@
       <c r="B141" s="26">
         <v>3</v>
       </c>
-      <c r="C141" s="53" t="s">
-        <v>168</v>
+      <c r="C141" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="D141" s="29">
         <v>263</v>
@@ -21125,7 +20830,7 @@
       <c r="BS141" s="28"/>
       <c r="BY141" s="28"/>
       <c r="BZ141" s="28"/>
-      <c r="CE141" s="38"/>
+      <c r="CE141" s="33"/>
       <c r="CF141" s="28"/>
       <c r="CG141" s="28"/>
       <c r="CM141" s="28"/>
@@ -21202,8 +20907,8 @@
       <c r="B142" s="26">
         <v>3</v>
       </c>
-      <c r="C142" s="53" t="s">
-        <v>171</v>
+      <c r="C142" s="48" t="s">
+        <v>155</v>
       </c>
       <c r="D142" s="29">
         <v>263</v>
@@ -21236,7 +20941,7 @@
       <c r="BS142" s="28"/>
       <c r="BY142" s="28"/>
       <c r="BZ142" s="28"/>
-      <c r="CE142" s="38"/>
+      <c r="CE142" s="33"/>
       <c r="CF142" s="28"/>
       <c r="CG142" s="28"/>
       <c r="CM142" s="28"/>
@@ -21313,8 +21018,8 @@
       <c r="B143" s="26">
         <v>3</v>
       </c>
-      <c r="C143" s="53" t="s">
-        <v>172</v>
+      <c r="C143" s="48" t="s">
+        <v>156</v>
       </c>
       <c r="D143" s="29">
         <v>266</v>
@@ -21347,7 +21052,7 @@
       <c r="BS143" s="28"/>
       <c r="BY143" s="28"/>
       <c r="BZ143" s="28"/>
-      <c r="CE143" s="38"/>
+      <c r="CE143" s="33"/>
       <c r="CF143" s="28"/>
       <c r="CG143" s="28"/>
       <c r="CM143" s="28"/>
@@ -21424,8 +21129,8 @@
       <c r="B144" s="26">
         <v>3</v>
       </c>
-      <c r="C144" s="53" t="s">
-        <v>176</v>
+      <c r="C144" s="48" t="s">
+        <v>160</v>
       </c>
       <c r="D144" s="29">
         <v>266</v>
@@ -21458,7 +21163,7 @@
       <c r="BS144" s="28"/>
       <c r="BY144" s="28"/>
       <c r="BZ144" s="28"/>
-      <c r="CE144" s="38"/>
+      <c r="CE144" s="33"/>
       <c r="CF144" s="28"/>
       <c r="CG144" s="28"/>
       <c r="CM144" s="28"/>
@@ -21535,8 +21240,8 @@
       <c r="B145" s="26">
         <v>3</v>
       </c>
-      <c r="C145" s="53" t="s">
-        <v>188</v>
+      <c r="C145" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="D145" s="29">
         <v>268</v>
@@ -21569,7 +21274,7 @@
       <c r="BS145" s="28"/>
       <c r="BY145" s="28"/>
       <c r="BZ145" s="28"/>
-      <c r="CE145" s="38"/>
+      <c r="CE145" s="33"/>
       <c r="CF145" s="28"/>
       <c r="CG145" s="28"/>
       <c r="CM145" s="28"/>
@@ -21646,8 +21351,8 @@
       <c r="B146" s="26">
         <v>3</v>
       </c>
-      <c r="C146" s="53" t="s">
-        <v>189</v>
+      <c r="C146" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="D146" s="29">
         <v>268</v>
@@ -21680,7 +21385,7 @@
       <c r="BS146" s="28"/>
       <c r="BY146" s="28"/>
       <c r="BZ146" s="28"/>
-      <c r="CE146" s="38"/>
+      <c r="CE146" s="33"/>
       <c r="CF146" s="28"/>
       <c r="CG146" s="28"/>
       <c r="CM146" s="28"/>
@@ -21757,8 +21462,8 @@
       <c r="B147" s="26">
         <v>3</v>
       </c>
-      <c r="C147" s="53" t="s">
-        <v>193</v>
+      <c r="C147" s="48" t="s">
+        <v>170</v>
       </c>
       <c r="D147" s="29">
         <v>269</v>
@@ -21791,7 +21496,7 @@
       <c r="BS147" s="28"/>
       <c r="BY147" s="28"/>
       <c r="BZ147" s="28"/>
-      <c r="CE147" s="38"/>
+      <c r="CE147" s="33"/>
       <c r="CF147" s="28"/>
       <c r="CG147" s="28"/>
       <c r="CM147" s="28"/>
@@ -21868,8 +21573,8 @@
       <c r="B148" s="26">
         <v>2</v>
       </c>
-      <c r="C148" s="60" t="s">
-        <v>148</v>
+      <c r="C148" s="55" t="s">
+        <v>134</v>
       </c>
       <c r="D148" s="29">
         <v>276</v>
@@ -21902,7 +21607,7 @@
       <c r="BS148" s="28"/>
       <c r="BY148" s="28"/>
       <c r="BZ148" s="28"/>
-      <c r="CE148" s="38"/>
+      <c r="CE148" s="33"/>
       <c r="CF148" s="28"/>
       <c r="CG148" s="28"/>
       <c r="CM148" s="28"/>
@@ -21979,8 +21684,8 @@
       <c r="B149" s="26">
         <v>2</v>
       </c>
-      <c r="C149" s="53" t="s">
-        <v>167</v>
+      <c r="C149" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="D149" s="29">
         <v>281</v>
@@ -22013,7 +21718,7 @@
       <c r="BS149" s="28"/>
       <c r="BY149" s="28"/>
       <c r="BZ149" s="28"/>
-      <c r="CE149" s="38"/>
+      <c r="CE149" s="33"/>
       <c r="CF149" s="28"/>
       <c r="CG149" s="28"/>
       <c r="CM149" s="28"/>
@@ -22090,8 +21795,8 @@
       <c r="B150" s="26">
         <v>2</v>
       </c>
-      <c r="C150" s="53" t="s">
-        <v>163</v>
+      <c r="C150" s="48" t="s">
+        <v>147</v>
       </c>
       <c r="D150" s="29">
         <v>287</v>
@@ -22124,7 +21829,7 @@
       <c r="BS150" s="28"/>
       <c r="BY150" s="28"/>
       <c r="BZ150" s="28"/>
-      <c r="CE150" s="38"/>
+      <c r="CE150" s="33"/>
       <c r="CF150" s="28"/>
       <c r="CG150" s="28"/>
       <c r="CM150" s="28"/>
@@ -22201,8 +21906,8 @@
       <c r="B151" s="26">
         <v>2</v>
       </c>
-      <c r="C151" s="53" t="s">
-        <v>147</v>
+      <c r="C151" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="D151" s="29">
         <v>287</v>
@@ -22235,7 +21940,7 @@
       <c r="BS151" s="28"/>
       <c r="BY151" s="28"/>
       <c r="BZ151" s="28"/>
-      <c r="CE151" s="38"/>
+      <c r="CE151" s="33"/>
       <c r="CF151" s="28"/>
       <c r="CG151" s="28"/>
       <c r="CM151" s="28"/>
@@ -22312,8 +22017,8 @@
       <c r="B152" s="26">
         <v>2</v>
       </c>
-      <c r="C152" s="53" t="s">
-        <v>164</v>
+      <c r="C152" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="D152" s="29">
         <v>289</v>
@@ -22346,7 +22051,7 @@
       <c r="BS152" s="28"/>
       <c r="BY152" s="28"/>
       <c r="BZ152" s="28"/>
-      <c r="CE152" s="38"/>
+      <c r="CE152" s="33"/>
       <c r="CF152" s="28"/>
       <c r="CG152" s="28"/>
       <c r="CM152" s="28"/>
@@ -22423,8 +22128,8 @@
       <c r="B153" s="26">
         <v>2</v>
       </c>
-      <c r="C153" s="53" t="s">
-        <v>197</v>
+      <c r="C153" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="D153" s="29">
         <v>290</v>
@@ -22457,7 +22162,7 @@
       <c r="BS153" s="28"/>
       <c r="BY153" s="28"/>
       <c r="BZ153" s="28"/>
-      <c r="CE153" s="38"/>
+      <c r="CE153" s="33"/>
       <c r="CF153" s="28"/>
       <c r="CG153" s="28"/>
       <c r="CM153" s="28"/>
@@ -22534,8 +22239,8 @@
       <c r="B154" s="26">
         <v>2</v>
       </c>
-      <c r="C154" s="53" t="s">
-        <v>174</v>
+      <c r="C154" s="48" t="s">
+        <v>158</v>
       </c>
       <c r="D154" s="29">
         <v>290</v>
@@ -22568,7 +22273,7 @@
       <c r="BS154" s="28"/>
       <c r="BY154" s="28"/>
       <c r="BZ154" s="28"/>
-      <c r="CE154" s="38"/>
+      <c r="CE154" s="33"/>
       <c r="CF154" s="28"/>
       <c r="CG154" s="28"/>
       <c r="CM154" s="28"/>
@@ -22645,8 +22350,8 @@
       <c r="B155" s="26">
         <v>2</v>
       </c>
-      <c r="C155" s="53" t="s">
-        <v>175</v>
+      <c r="C155" s="48" t="s">
+        <v>159</v>
       </c>
       <c r="D155" s="29">
         <v>294</v>
@@ -22679,7 +22384,7 @@
       <c r="BS155" s="28"/>
       <c r="BY155" s="28"/>
       <c r="BZ155" s="28"/>
-      <c r="CE155" s="38"/>
+      <c r="CE155" s="33"/>
       <c r="CF155" s="28"/>
       <c r="CG155" s="28"/>
       <c r="CM155" s="28"/>
@@ -22756,8 +22461,8 @@
       <c r="B156" s="26">
         <v>1</v>
       </c>
-      <c r="C156" s="53" t="s">
-        <v>141</v>
+      <c r="C156" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="D156" s="29">
         <v>295</v>
@@ -22790,7 +22495,7 @@
       <c r="BS156" s="28"/>
       <c r="BY156" s="28"/>
       <c r="BZ156" s="28"/>
-      <c r="CE156" s="38"/>
+      <c r="CE156" s="33"/>
       <c r="CF156" s="28"/>
       <c r="CG156" s="28"/>
       <c r="CM156" s="28"/>
@@ -22867,8 +22572,8 @@
       <c r="B157" s="26">
         <v>1</v>
       </c>
-      <c r="C157" s="53" t="s">
-        <v>138</v>
+      <c r="C157" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="D157" s="29">
         <v>296</v>
@@ -22901,7 +22606,7 @@
       <c r="BS157" s="28"/>
       <c r="BY157" s="28"/>
       <c r="BZ157" s="28"/>
-      <c r="CE157" s="38"/>
+      <c r="CE157" s="33"/>
       <c r="CF157" s="28"/>
       <c r="CG157" s="28"/>
       <c r="CM157" s="28"/>
@@ -22978,8 +22683,8 @@
       <c r="B158" s="26">
         <v>1</v>
       </c>
-      <c r="C158" s="53" t="s">
-        <v>152</v>
+      <c r="C158" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="D158" s="29">
         <v>296</v>
@@ -23012,7 +22717,7 @@
       <c r="BS158" s="28"/>
       <c r="BY158" s="28"/>
       <c r="BZ158" s="28"/>
-      <c r="CE158" s="38"/>
+      <c r="CE158" s="33"/>
       <c r="CF158" s="28"/>
       <c r="CG158" s="28"/>
       <c r="CM158" s="28"/>
@@ -23091,8 +22796,8 @@
       <c r="B159" s="26">
         <v>1</v>
       </c>
-      <c r="C159" s="53" t="s">
-        <v>74</v>
+      <c r="C159" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="D159" s="29">
         <v>297</v>
@@ -23201,8 +22906,8 @@
       <c r="B160" s="26">
         <v>1</v>
       </c>
-      <c r="C160" s="53" t="s">
-        <v>151</v>
+      <c r="C160" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="D160" s="29">
         <v>298</v>
@@ -23235,7 +22940,7 @@
       <c r="BS160" s="28"/>
       <c r="BY160" s="28"/>
       <c r="BZ160" s="28"/>
-      <c r="CE160" s="38"/>
+      <c r="CE160" s="33"/>
       <c r="CF160" s="28"/>
       <c r="CG160" s="28"/>
       <c r="CM160" s="28"/>
@@ -23314,7 +23019,7 @@
       <c r="B161" s="26">
         <v>1</v>
       </c>
-      <c r="C161" s="54" t="s">
+      <c r="C161" s="49" t="s">
         <v>38</v>
       </c>
       <c r="D161" s="29">
@@ -23426,7 +23131,7 @@
       <c r="B162" s="26">
         <v>1</v>
       </c>
-      <c r="C162" s="54" t="s">
+      <c r="C162" s="49" t="s">
         <v>44</v>
       </c>
       <c r="D162" s="29">
@@ -23560,7 +23265,7 @@
       <c r="BS163" s="28"/>
       <c r="BY163" s="28"/>
       <c r="BZ163" s="28"/>
-      <c r="CE163" s="38"/>
+      <c r="CE163" s="33"/>
       <c r="CF163" s="28"/>
       <c r="CG163" s="28"/>
       <c r="CM163" s="28"/>
@@ -23633,13 +23338,13 @@
       <c r="LK163" s="28"/>
     </row>
     <row r="164" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B164" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="C164" s="68"/>
+      <c r="A164" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C164" s="57"/>
       <c r="D164" s="29"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
@@ -23665,7 +23370,7 @@
       <c r="BS164" s="28"/>
       <c r="BY164" s="28"/>
       <c r="BZ164" s="28"/>
-      <c r="CE164" s="38"/>
+      <c r="CE164" s="33"/>
       <c r="CF164" s="28"/>
       <c r="CG164" s="28"/>
       <c r="CM164" s="28"/>
@@ -23739,13 +23444,13 @@
     </row>
     <row r="165" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B165" s="26">
         <v>3</v>
       </c>
-      <c r="C165" s="53" t="s">
-        <v>198</v>
+      <c r="C165" s="48" t="s">
+        <v>173</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="13"/>
@@ -23772,7 +23477,7 @@
       <c r="BS165" s="28"/>
       <c r="BY165" s="28"/>
       <c r="BZ165" s="28"/>
-      <c r="CE165" s="38"/>
+      <c r="CE165" s="33"/>
       <c r="CF165" s="28"/>
       <c r="CG165" s="28"/>
       <c r="CM165" s="28"/>
@@ -23846,13 +23551,13 @@
     </row>
     <row r="166" spans="1:323" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="55" t="s">
-        <v>200</v>
+      <c r="C166" s="50" t="s">
+        <v>175</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="13"/>
@@ -23885,7 +23590,7 @@
       <c r="BS166" s="28"/>
       <c r="BY166" s="28"/>
       <c r="BZ166" s="28"/>
-      <c r="CE166" s="38"/>
+      <c r="CE166" s="33"/>
       <c r="CF166" s="28"/>
       <c r="CG166" s="28"/>
       <c r="CM166" s="28"/>
@@ -23959,13 +23664,13 @@
     </row>
     <row r="167" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B167" s="26">
         <v>5</v>
       </c>
-      <c r="C167" s="55" t="s">
-        <v>222</v>
+      <c r="C167" s="50" t="s">
+        <v>195</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="13"/>
@@ -23998,7 +23703,7 @@
       <c r="BS167" s="28"/>
       <c r="BY167" s="28"/>
       <c r="BZ167" s="28"/>
-      <c r="CE167" s="38"/>
+      <c r="CE167" s="33"/>
       <c r="CF167" s="28"/>
       <c r="CG167" s="28"/>
       <c r="CM167" s="28"/>
@@ -24069,13 +23774,13 @@
     </row>
     <row r="168" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B168" s="26">
         <v>5</v>
       </c>
-      <c r="C168" s="66" t="s">
-        <v>207</v>
+      <c r="C168" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="13"/>
@@ -24108,7 +23813,7 @@
       <c r="BS168" s="28"/>
       <c r="BY168" s="28"/>
       <c r="BZ168" s="28"/>
-      <c r="CE168" s="38"/>
+      <c r="CE168" s="33"/>
       <c r="CF168" s="28"/>
       <c r="CG168" s="28"/>
       <c r="CM168" s="28"/>
@@ -24182,13 +23887,13 @@
     </row>
     <row r="169" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B169" s="26">
         <v>5</v>
       </c>
-      <c r="C169" s="66" t="s">
-        <v>208</v>
+      <c r="C169" s="56" t="s">
+        <v>181</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="13"/>
@@ -24221,7 +23926,7 @@
       <c r="BS169" s="28"/>
       <c r="BY169" s="28"/>
       <c r="BZ169" s="28"/>
-      <c r="CE169" s="38"/>
+      <c r="CE169" s="33"/>
       <c r="CF169" s="28"/>
       <c r="CG169" s="28"/>
       <c r="CM169" s="28"/>
@@ -24295,13 +24000,13 @@
     </row>
     <row r="170" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B170" s="26">
         <v>5</v>
       </c>
-      <c r="C170" s="66" t="s">
-        <v>209</v>
+      <c r="C170" s="56" t="s">
+        <v>182</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="13"/>
@@ -24334,7 +24039,7 @@
       <c r="BS170" s="28"/>
       <c r="BY170" s="28"/>
       <c r="BZ170" s="28"/>
-      <c r="CE170" s="38"/>
+      <c r="CE170" s="33"/>
       <c r="CF170" s="28"/>
       <c r="CG170" s="28"/>
       <c r="CM170" s="28"/>
@@ -24408,13 +24113,13 @@
     </row>
     <row r="171" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B171" s="26">
         <v>5</v>
       </c>
-      <c r="C171" s="66" t="s">
-        <v>215</v>
+      <c r="C171" s="56" t="s">
+        <v>188</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="13"/>
@@ -24447,7 +24152,7 @@
       <c r="BS171" s="28"/>
       <c r="BY171" s="28"/>
       <c r="BZ171" s="28"/>
-      <c r="CE171" s="38"/>
+      <c r="CE171" s="33"/>
       <c r="CF171" s="28"/>
       <c r="CG171" s="28"/>
       <c r="CM171" s="28"/>
@@ -24521,13 +24226,13 @@
     </row>
     <row r="172" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B172" s="26">
         <v>5</v>
       </c>
-      <c r="C172" s="66" t="s">
-        <v>214</v>
+      <c r="C172" s="56" t="s">
+        <v>187</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="13"/>
@@ -24560,7 +24265,7 @@
       <c r="BS172" s="28"/>
       <c r="BY172" s="28"/>
       <c r="BZ172" s="28"/>
-      <c r="CE172" s="38"/>
+      <c r="CE172" s="33"/>
       <c r="CF172" s="28"/>
       <c r="CG172" s="28"/>
       <c r="CM172" s="28"/>
@@ -24632,13 +24337,13 @@
     </row>
     <row r="173" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B173" s="26">
         <v>5</v>
       </c>
-      <c r="C173" s="66" t="s">
-        <v>216</v>
+      <c r="C173" s="56" t="s">
+        <v>189</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="13"/>
@@ -24671,7 +24376,7 @@
       <c r="BS173" s="28"/>
       <c r="BY173" s="28"/>
       <c r="BZ173" s="28"/>
-      <c r="CE173" s="38"/>
+      <c r="CE173" s="33"/>
       <c r="CF173" s="28"/>
       <c r="CG173" s="28"/>
       <c r="CM173" s="28"/>
@@ -24745,13 +24450,13 @@
     </row>
     <row r="174" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B174" s="26">
         <v>5</v>
       </c>
-      <c r="C174" s="66" t="s">
-        <v>218</v>
+      <c r="C174" s="56" t="s">
+        <v>191</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="13"/>
@@ -24784,7 +24489,7 @@
       <c r="BS174" s="28"/>
       <c r="BY174" s="28"/>
       <c r="BZ174" s="28"/>
-      <c r="CE174" s="38"/>
+      <c r="CE174" s="33"/>
       <c r="CF174" s="28"/>
       <c r="CG174" s="28"/>
       <c r="CM174" s="28"/>
@@ -24857,13 +24562,13 @@
     </row>
     <row r="175" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B175" s="26">
         <v>5</v>
       </c>
-      <c r="C175" s="66" t="s">
-        <v>217</v>
+      <c r="C175" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="13"/>
@@ -24896,7 +24601,7 @@
       <c r="BS175" s="28"/>
       <c r="BY175" s="28"/>
       <c r="BZ175" s="28"/>
-      <c r="CE175" s="38"/>
+      <c r="CE175" s="33"/>
       <c r="CF175" s="28"/>
       <c r="CG175" s="28"/>
       <c r="CM175" s="28"/>
@@ -24969,13 +24674,13 @@
     </row>
     <row r="176" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B176" s="26">
         <v>5</v>
       </c>
-      <c r="C176" s="66" t="s">
-        <v>219</v>
+      <c r="C176" s="56" t="s">
+        <v>192</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="13"/>
@@ -25008,7 +24713,7 @@
       <c r="BS176" s="28"/>
       <c r="BY176" s="28"/>
       <c r="BZ176" s="28"/>
-      <c r="CE176" s="38"/>
+      <c r="CE176" s="33"/>
       <c r="CF176" s="28"/>
       <c r="CG176" s="28"/>
       <c r="CM176" s="28"/>
@@ -25082,13 +24787,13 @@
     </row>
     <row r="177" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B177" s="26">
         <v>5</v>
       </c>
-      <c r="C177" s="55" t="s">
-        <v>212</v>
+      <c r="C177" s="50" t="s">
+        <v>185</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="13"/>
@@ -25121,7 +24826,7 @@
       <c r="BS177" s="28"/>
       <c r="BY177" s="28"/>
       <c r="BZ177" s="28"/>
-      <c r="CE177" s="38"/>
+      <c r="CE177" s="33"/>
       <c r="CF177" s="28"/>
       <c r="CG177" s="28"/>
       <c r="CM177" s="28"/>
@@ -25166,7 +24871,7 @@
       <c r="HQ177" s="28"/>
       <c r="HW177" s="28"/>
       <c r="HX177" s="28"/>
-      <c r="HY177" s="58"/>
+      <c r="HY177" s="53"/>
       <c r="ID177" s="28"/>
       <c r="IE177" s="28"/>
       <c r="IK177" s="28"/>
@@ -25195,13 +24900,13 @@
     </row>
     <row r="178" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B178" s="26">
         <v>5</v>
       </c>
-      <c r="C178" s="55" t="s">
-        <v>210</v>
+      <c r="C178" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="13"/>
@@ -25234,7 +24939,7 @@
       <c r="BS178" s="28"/>
       <c r="BY178" s="28"/>
       <c r="BZ178" s="28"/>
-      <c r="CE178" s="38"/>
+      <c r="CE178" s="33"/>
       <c r="CF178" s="28"/>
       <c r="CG178" s="28"/>
       <c r="CM178" s="28"/>
@@ -25308,13 +25013,13 @@
     </row>
     <row r="179" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B179" s="26">
         <v>5</v>
       </c>
-      <c r="C179" s="55" t="s">
-        <v>213</v>
+      <c r="C179" s="50" t="s">
+        <v>186</v>
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="13"/>
@@ -25347,7 +25052,7 @@
       <c r="BS179" s="28"/>
       <c r="BY179" s="28"/>
       <c r="BZ179" s="28"/>
-      <c r="CE179" s="38"/>
+      <c r="CE179" s="33"/>
       <c r="CF179" s="28"/>
       <c r="CG179" s="28"/>
       <c r="CM179" s="28"/>
@@ -25421,13 +25126,13 @@
     </row>
     <row r="180" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B180" s="26">
         <v>5</v>
       </c>
-      <c r="C180" s="55" t="s">
-        <v>220</v>
+      <c r="C180" s="50" t="s">
+        <v>193</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="13"/>
@@ -25460,7 +25165,7 @@
       <c r="BS180" s="28"/>
       <c r="BY180" s="28"/>
       <c r="BZ180" s="28"/>
-      <c r="CE180" s="38"/>
+      <c r="CE180" s="33"/>
       <c r="CF180" s="28"/>
       <c r="CG180" s="28"/>
       <c r="CM180" s="28"/>
@@ -25534,13 +25239,13 @@
     </row>
     <row r="181" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B181" s="26">
         <v>5</v>
       </c>
-      <c r="C181" s="55" t="s">
-        <v>221</v>
+      <c r="C181" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="13"/>
@@ -25573,7 +25278,7 @@
       <c r="BS181" s="28"/>
       <c r="BY181" s="28"/>
       <c r="BZ181" s="28"/>
-      <c r="CE181" s="38"/>
+      <c r="CE181" s="33"/>
       <c r="CF181" s="28"/>
       <c r="CG181" s="28"/>
       <c r="CM181" s="28"/>
@@ -25647,13 +25352,13 @@
     </row>
     <row r="182" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B182" s="26">
         <v>5</v>
       </c>
-      <c r="C182" s="55" t="s">
-        <v>223</v>
+      <c r="C182" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="D182" s="29">
         <v>254</v>
@@ -25690,7 +25395,7 @@
       <c r="BS182" s="28"/>
       <c r="BY182" s="28"/>
       <c r="BZ182" s="28"/>
-      <c r="CE182" s="38"/>
+      <c r="CE182" s="33"/>
       <c r="CF182" s="28"/>
       <c r="CG182" s="28"/>
       <c r="CM182" s="28"/>
@@ -25765,7 +25470,7 @@
     <row r="183" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="26"/>
-      <c r="C183" s="53"/>
+      <c r="C183" s="48"/>
       <c r="D183" s="29"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
@@ -25791,7 +25496,7 @@
       <c r="BS183" s="28"/>
       <c r="BY183" s="28"/>
       <c r="BZ183" s="28"/>
-      <c r="CE183" s="38"/>
+      <c r="CE183" s="33"/>
       <c r="CF183" s="28"/>
       <c r="CG183" s="28"/>
       <c r="CM183" s="28"/>
@@ -25865,13 +25570,13 @@
     </row>
     <row r="184" spans="1:323" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B184" s="26">
         <v>3</v>
       </c>
-      <c r="C184" s="53" t="s">
-        <v>228</v>
+      <c r="C184" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="13">
@@ -25900,7 +25605,7 @@
       <c r="BS184" s="28"/>
       <c r="BY184" s="28"/>
       <c r="BZ184" s="28"/>
-      <c r="CE184" s="38"/>
+      <c r="CE184" s="33"/>
       <c r="CF184" s="28"/>
       <c r="CG184" s="28"/>
       <c r="CM184" s="28"/>
@@ -25974,13 +25679,13 @@
     </row>
     <row r="185" spans="1:323" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B185" s="26">
         <v>3</v>
       </c>
-      <c r="C185" s="53" t="s">
-        <v>230</v>
+      <c r="C185" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="13">
@@ -26009,7 +25714,7 @@
       <c r="BS185" s="28"/>
       <c r="BY185" s="28"/>
       <c r="BZ185" s="28"/>
-      <c r="CE185" s="38"/>
+      <c r="CE185" s="33"/>
       <c r="CF185" s="28"/>
       <c r="CG185" s="28"/>
       <c r="CM185" s="28"/>
@@ -26083,13 +25788,13 @@
     </row>
     <row r="186" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B186" s="26">
         <v>3</v>
       </c>
-      <c r="C186" s="53" t="s">
-        <v>231</v>
+      <c r="C186" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="13">
@@ -26118,7 +25823,7 @@
       <c r="BS186" s="28"/>
       <c r="BY186" s="28"/>
       <c r="BZ186" s="28"/>
-      <c r="CE186" s="38"/>
+      <c r="CE186" s="33"/>
       <c r="CF186" s="28"/>
       <c r="CG186" s="28"/>
       <c r="CM186" s="28"/>
@@ -26192,13 +25897,13 @@
     </row>
     <row r="187" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B187" s="26">
         <v>3</v>
       </c>
-      <c r="C187" s="53" t="s">
-        <v>232</v>
+      <c r="C187" s="48" t="s">
+        <v>203</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="13">
@@ -26227,7 +25932,7 @@
       <c r="BS187" s="28"/>
       <c r="BY187" s="28"/>
       <c r="BZ187" s="28"/>
-      <c r="CE187" s="38"/>
+      <c r="CE187" s="33"/>
       <c r="CF187" s="28"/>
       <c r="CG187" s="28"/>
       <c r="CM187" s="28"/>
@@ -26301,13 +26006,13 @@
     </row>
     <row r="188" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B188" s="26">
         <v>3</v>
       </c>
-      <c r="C188" s="53" t="s">
-        <v>233</v>
+      <c r="C188" s="48" t="s">
+        <v>204</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="13">
@@ -26336,7 +26041,7 @@
       <c r="BS188" s="28"/>
       <c r="BY188" s="28"/>
       <c r="BZ188" s="28"/>
-      <c r="CE188" s="38"/>
+      <c r="CE188" s="33"/>
       <c r="CF188" s="28"/>
       <c r="CG188" s="28"/>
       <c r="CM188" s="28"/>
@@ -26410,13 +26115,13 @@
     </row>
     <row r="189" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B189" s="26">
         <v>3</v>
       </c>
-      <c r="C189" s="53" t="s">
-        <v>234</v>
+      <c r="C189" s="48" t="s">
+        <v>205</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="13">
@@ -26445,7 +26150,7 @@
       <c r="BS189" s="28"/>
       <c r="BY189" s="28"/>
       <c r="BZ189" s="28"/>
-      <c r="CE189" s="38"/>
+      <c r="CE189" s="33"/>
       <c r="CF189" s="28"/>
       <c r="CG189" s="28"/>
       <c r="CM189" s="28"/>
@@ -26520,7 +26225,7 @@
     <row r="190" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="26"/>
-      <c r="C190" s="53"/>
+      <c r="C190" s="48"/>
       <c r="D190" s="29"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
@@ -26546,7 +26251,7 @@
       <c r="BS190" s="28"/>
       <c r="BY190" s="28"/>
       <c r="BZ190" s="28"/>
-      <c r="CE190" s="38"/>
+      <c r="CE190" s="33"/>
       <c r="CF190" s="28"/>
       <c r="CG190" s="28"/>
       <c r="CM190" s="28"/>
@@ -26621,7 +26326,7 @@
     <row r="191" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="26"/>
-      <c r="C191" s="53"/>
+      <c r="C191" s="48"/>
       <c r="D191" s="29"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
@@ -26647,7 +26352,7 @@
       <c r="BS191" s="28"/>
       <c r="BY191" s="28"/>
       <c r="BZ191" s="28"/>
-      <c r="CE191" s="38"/>
+      <c r="CE191" s="33"/>
       <c r="CF191" s="28"/>
       <c r="CG191" s="28"/>
       <c r="CM191" s="28"/>
@@ -26720,13 +26425,13 @@
       <c r="LK191" s="28"/>
     </row>
     <row r="192" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B192" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C192" s="68"/>
+      <c r="A192" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B192" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C192" s="57"/>
       <c r="D192" s="29"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
@@ -26752,7 +26457,7 @@
       <c r="BS192" s="28"/>
       <c r="BY192" s="28"/>
       <c r="BZ192" s="28"/>
-      <c r="CE192" s="38"/>
+      <c r="CE192" s="33"/>
       <c r="CF192" s="28"/>
       <c r="CG192" s="28"/>
       <c r="CM192" s="28"/>
@@ -26826,11 +26531,11 @@
     </row>
     <row r="193" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B193" s="26"/>
-      <c r="C193" s="55" t="s">
-        <v>239</v>
+      <c r="C193" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="13"/>
@@ -26863,7 +26568,7 @@
       <c r="BS193" s="28"/>
       <c r="BY193" s="28"/>
       <c r="BZ193" s="28"/>
-      <c r="CE193" s="38"/>
+      <c r="CE193" s="33"/>
       <c r="CF193" s="28"/>
       <c r="CG193" s="28"/>
       <c r="CM193" s="28"/>
@@ -26938,7 +26643,7 @@
     <row r="194" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="26"/>
-      <c r="C194" s="53"/>
+      <c r="C194" s="48"/>
       <c r="D194" s="29"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
@@ -26964,7 +26669,7 @@
       <c r="BS194" s="28"/>
       <c r="BY194" s="28"/>
       <c r="BZ194" s="28"/>
-      <c r="CE194" s="38"/>
+      <c r="CE194" s="33"/>
       <c r="CF194" s="28"/>
       <c r="CG194" s="28"/>
       <c r="CM194" s="28"/>
@@ -27039,7 +26744,7 @@
     <row r="195" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="26"/>
-      <c r="C195" s="53"/>
+      <c r="C195" s="48"/>
       <c r="D195" s="29"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
@@ -27065,7 +26770,7 @@
       <c r="BS195" s="28"/>
       <c r="BY195" s="28"/>
       <c r="BZ195" s="28"/>
-      <c r="CE195" s="38"/>
+      <c r="CE195" s="33"/>
       <c r="CF195" s="28"/>
       <c r="CG195" s="28"/>
       <c r="CM195" s="28"/>
@@ -27140,7 +26845,7 @@
     <row r="196" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="26"/>
-      <c r="C196" s="53"/>
+      <c r="C196" s="48"/>
       <c r="D196" s="29"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
@@ -27166,7 +26871,7 @@
       <c r="BS196" s="28"/>
       <c r="BY196" s="28"/>
       <c r="BZ196" s="28"/>
-      <c r="CE196" s="38"/>
+      <c r="CE196" s="33"/>
       <c r="CF196" s="28"/>
       <c r="CG196" s="28"/>
       <c r="CM196" s="28"/>
@@ -27241,7 +26946,7 @@
     <row r="197" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="26"/>
-      <c r="C197" s="53"/>
+      <c r="C197" s="48"/>
       <c r="D197" s="29"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
@@ -27267,7 +26972,7 @@
       <c r="BS197" s="28"/>
       <c r="BY197" s="28"/>
       <c r="BZ197" s="28"/>
-      <c r="CE197" s="38"/>
+      <c r="CE197" s="33"/>
       <c r="CF197" s="28"/>
       <c r="CG197" s="28"/>
       <c r="CM197" s="28"/>
@@ -27342,7 +27047,7 @@
     <row r="198" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="26"/>
-      <c r="C198" s="53"/>
+      <c r="C198" s="48"/>
       <c r="D198" s="29"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
@@ -27368,7 +27073,7 @@
       <c r="BS198" s="28"/>
       <c r="BY198" s="28"/>
       <c r="BZ198" s="28"/>
-      <c r="CE198" s="38"/>
+      <c r="CE198" s="33"/>
       <c r="CF198" s="28"/>
       <c r="CG198" s="28"/>
       <c r="CM198" s="28"/>
@@ -27443,7 +27148,7 @@
     <row r="199" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="26"/>
-      <c r="C199" s="53"/>
+      <c r="C199" s="48"/>
       <c r="D199" s="29"/>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
@@ -27469,7 +27174,7 @@
       <c r="BS199" s="28"/>
       <c r="BY199" s="28"/>
       <c r="BZ199" s="28"/>
-      <c r="CE199" s="38"/>
+      <c r="CE199" s="33"/>
       <c r="CF199" s="28"/>
       <c r="CG199" s="28"/>
       <c r="CM199" s="28"/>
@@ -27544,7 +27249,7 @@
     <row r="200" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="26"/>
-      <c r="C200" s="53"/>
+      <c r="C200" s="48"/>
       <c r="D200" s="29"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
@@ -27570,7 +27275,7 @@
       <c r="BS200" s="28"/>
       <c r="BY200" s="28"/>
       <c r="BZ200" s="28"/>
-      <c r="CE200" s="38"/>
+      <c r="CE200" s="33"/>
       <c r="CF200" s="28"/>
       <c r="CG200" s="28"/>
       <c r="CM200" s="28"/>
@@ -27645,7 +27350,7 @@
     <row r="201" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="26"/>
-      <c r="C201" s="53"/>
+      <c r="C201" s="48"/>
       <c r="D201" s="29"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
@@ -27671,7 +27376,7 @@
       <c r="BS201" s="28"/>
       <c r="BY201" s="28"/>
       <c r="BZ201" s="28"/>
-      <c r="CE201" s="38"/>
+      <c r="CE201" s="33"/>
       <c r="CF201" s="28"/>
       <c r="CG201" s="28"/>
       <c r="CM201" s="28"/>
@@ -27746,7 +27451,7 @@
     <row r="202" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="26"/>
-      <c r="C202" s="53"/>
+      <c r="C202" s="48"/>
       <c r="D202" s="29"/>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
@@ -27772,7 +27477,7 @@
       <c r="BS202" s="28"/>
       <c r="BY202" s="28"/>
       <c r="BZ202" s="28"/>
-      <c r="CE202" s="38"/>
+      <c r="CE202" s="33"/>
       <c r="CF202" s="28"/>
       <c r="CG202" s="28"/>
       <c r="CM202" s="28"/>
@@ -27847,7 +27552,7 @@
     <row r="203" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="26"/>
-      <c r="C203" s="53"/>
+      <c r="C203" s="48"/>
       <c r="D203" s="29"/>
       <c r="E203" s="13"/>
       <c r="F203" s="13"/>
@@ -27873,7 +27578,7 @@
       <c r="BS203" s="28"/>
       <c r="BY203" s="28"/>
       <c r="BZ203" s="28"/>
-      <c r="CE203" s="38"/>
+      <c r="CE203" s="33"/>
       <c r="CF203" s="28"/>
       <c r="CG203" s="28"/>
       <c r="CM203" s="28"/>
@@ -27948,7 +27653,7 @@
     <row r="204" spans="1:323" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="26"/>
-      <c r="C204" s="53"/>
+      <c r="C204" s="48"/>
       <c r="D204" s="29"/>
       <c r="E204" s="13"/>
       <c r="F204" s="13"/>
@@ -27974,7 +27679,7 @@
       <c r="BS204" s="28"/>
       <c r="BY204" s="28"/>
       <c r="BZ204" s="28"/>
-      <c r="CE204" s="38"/>
+      <c r="CE204" s="33"/>
       <c r="CF204" s="28"/>
       <c r="CG204" s="28"/>
       <c r="CM204" s="28"/>
@@ -28049,13 +27754,13 @@
     <row r="205" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
-      <c r="CE205" s="38"/>
-      <c r="CG205" s="38"/>
-      <c r="CI205" s="38"/>
-      <c r="CK205" s="38"/>
+      <c r="CE205" s="33"/>
+      <c r="CG205" s="33"/>
+      <c r="CI205" s="33"/>
+      <c r="CK205" s="33"/>
     </row>
     <row r="208" spans="1:323" x14ac:dyDescent="0.25">
-      <c r="C208" s="56"/>
+      <c r="C208" s="51"/>
     </row>
   </sheetData>
   <sortState ref="A130:LK164">
@@ -28070,586 +27775,586 @@
     <mergeCell ref="B164:C164"/>
   </mergeCells>
   <conditionalFormatting sqref="T31:T50 T52:T59 CL58:CL59 R58:R59 CV52:CV59 CO68:CR68 L68:M68 J68 Z76:AA77 W76:Y76 CV31:CV50 P8:T30 CV8:CZ30 AA8:AA12 BI8:BI42 BN8:BN42 BX8:BX46 R31:R54 S31:S59 P31:Q59 CW31:CZ59 CL14:CL54 CH8:CK59 CL8:CL12 BT8:BW65 BO8:BQ65 BM8:BM65 BJ8:BJ65 BF8:BH65 W8:Z65 AA14:AA65 BI44:BI65 BN44:BN65 BX48:BX65 CO8:CS67 J8:M67 W66:AA75 DX109:DX113 DX79:DX107 DX8:EB78 DY79:EB113 DQ8:DU204 DJ8:DN204 DC8:DG204 EE8:EI204 CA8:CE204 AY8:BC204 AR8:AV204 AK8:AO204 AD8:AH204 BF66:BJ204 BM66:BQ204 BT66:BX204 W78:AA204 P60:T204 CV60:CZ204 CO69:CS204 DX114:EB204 CH60:CL204 EL8:EP204 ES8:EW204 EZ8:FD204 FG8:FK204 FN8:FR204 FU8:FY204 GB8:GF204 GI8:GM204 GP8:GT204 GW8:HA204 J69:M204 HD129:HH204 HK129:HO204 HR129:HV204 HY129:IC204 IF129:IJ204 IM129:IQ204 IT129:IX204 JA129:JE204 JH129:JL204 JO129:JS204 JV129:JZ204 KC129:KG204 KJ129:KN204 KQ129:KU204 KX129:LB204 LE129:LI204">
-    <cfRule type="expression" dxfId="176" priority="268">
+    <cfRule type="expression" dxfId="169" priority="268">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="269">
+    <cfRule type="expression" dxfId="168" priority="269">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="270">
+    <cfRule type="expression" dxfId="167" priority="270">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="271">
+    <cfRule type="expression" dxfId="166" priority="271">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="272">
+    <cfRule type="expression" dxfId="165" priority="272">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="273">
+    <cfRule type="expression" dxfId="164" priority="273">
       <formula>J$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="274">
+    <cfRule type="expression" dxfId="163" priority="274">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="275">
+    <cfRule type="expression" dxfId="162" priority="275">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205:HC205">
-    <cfRule type="expression" dxfId="168" priority="267">
+    <cfRule type="expression" dxfId="161" priority="267">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:LK7">
-    <cfRule type="expression" dxfId="167" priority="266">
+    <cfRule type="expression" dxfId="160" priority="266">
       <formula>J$7=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL56:CL57">
-    <cfRule type="expression" dxfId="166" priority="257">
+    <cfRule type="expression" dxfId="159" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="258">
+    <cfRule type="expression" dxfId="158" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="259">
+    <cfRule type="expression" dxfId="157" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="260">
+    <cfRule type="expression" dxfId="156" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="261">
+    <cfRule type="expression" dxfId="155" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="262">
+    <cfRule type="expression" dxfId="154" priority="262">
       <formula>CL$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="263">
+    <cfRule type="expression" dxfId="153" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="264">
+    <cfRule type="expression" dxfId="152" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HD8:HH128">
-    <cfRule type="expression" dxfId="158" priority="161">
+    <cfRule type="expression" dxfId="151" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="162">
+    <cfRule type="expression" dxfId="150" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="163">
+    <cfRule type="expression" dxfId="149" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="164">
+    <cfRule type="expression" dxfId="148" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="165">
+    <cfRule type="expression" dxfId="147" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="166">
+    <cfRule type="expression" dxfId="146" priority="166">
       <formula>HD$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="167">
+    <cfRule type="expression" dxfId="145" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="168">
+    <cfRule type="expression" dxfId="144" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HD205:HJ205">
-    <cfRule type="expression" dxfId="150" priority="160">
+    <cfRule type="expression" dxfId="143" priority="160">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK8:HO128">
-    <cfRule type="expression" dxfId="149" priority="151">
+    <cfRule type="expression" dxfId="142" priority="151">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="152">
+    <cfRule type="expression" dxfId="141" priority="152">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="153">
+    <cfRule type="expression" dxfId="140" priority="153">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="154">
+    <cfRule type="expression" dxfId="139" priority="154">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="155">
+    <cfRule type="expression" dxfId="138" priority="155">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="156">
+    <cfRule type="expression" dxfId="137" priority="156">
       <formula>HK$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="157">
+    <cfRule type="expression" dxfId="136" priority="157">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="158">
+    <cfRule type="expression" dxfId="135" priority="158">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK205:HQ205">
-    <cfRule type="expression" dxfId="141" priority="150">
+    <cfRule type="expression" dxfId="134" priority="150">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR8:HV128">
-    <cfRule type="expression" dxfId="140" priority="141">
+    <cfRule type="expression" dxfId="133" priority="141">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="142">
+    <cfRule type="expression" dxfId="132" priority="142">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="143">
+    <cfRule type="expression" dxfId="131" priority="143">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="144">
+    <cfRule type="expression" dxfId="130" priority="144">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="145">
+    <cfRule type="expression" dxfId="129" priority="145">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="146">
+    <cfRule type="expression" dxfId="128" priority="146">
       <formula>HR$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="147">
+    <cfRule type="expression" dxfId="127" priority="147">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="148">
+    <cfRule type="expression" dxfId="126" priority="148">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR205:HX205">
-    <cfRule type="expression" dxfId="132" priority="140">
+    <cfRule type="expression" dxfId="125" priority="140">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY8:IC128 HX167 HX174:HX175">
-    <cfRule type="expression" dxfId="131" priority="131">
+    <cfRule type="expression" dxfId="124" priority="131">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="132">
+    <cfRule type="expression" dxfId="123" priority="132">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="133">
+    <cfRule type="expression" dxfId="122" priority="133">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="134">
+    <cfRule type="expression" dxfId="121" priority="134">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="135">
+    <cfRule type="expression" dxfId="120" priority="135">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="136">
+    <cfRule type="expression" dxfId="119" priority="136">
       <formula>HX$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="137">
+    <cfRule type="expression" dxfId="118" priority="137">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="138">
+    <cfRule type="expression" dxfId="117" priority="138">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY205:IE205">
-    <cfRule type="expression" dxfId="123" priority="130">
+    <cfRule type="expression" dxfId="116" priority="130">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF8:IJ128">
-    <cfRule type="expression" dxfId="122" priority="121">
+    <cfRule type="expression" dxfId="115" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="122">
+    <cfRule type="expression" dxfId="114" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="123">
+    <cfRule type="expression" dxfId="113" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="124">
+    <cfRule type="expression" dxfId="112" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="125">
+    <cfRule type="expression" dxfId="111" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="126">
+    <cfRule type="expression" dxfId="110" priority="126">
       <formula>IF$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="127">
+    <cfRule type="expression" dxfId="109" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="128">
+    <cfRule type="expression" dxfId="108" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF205:IL205">
-    <cfRule type="expression" dxfId="114" priority="120">
+    <cfRule type="expression" dxfId="107" priority="120">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM8:IQ128 IK172:IL172 IL177">
-    <cfRule type="expression" dxfId="113" priority="111">
+    <cfRule type="expression" dxfId="106" priority="111">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="112">
+    <cfRule type="expression" dxfId="105" priority="112">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="113">
+    <cfRule type="expression" dxfId="104" priority="113">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="114">
+    <cfRule type="expression" dxfId="103" priority="114">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="115">
+    <cfRule type="expression" dxfId="102" priority="115">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
+    <cfRule type="expression" dxfId="101" priority="116">
       <formula>IK$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="117">
+    <cfRule type="expression" dxfId="100" priority="117">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="118">
+    <cfRule type="expression" dxfId="99" priority="118">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM205:IS205">
-    <cfRule type="expression" dxfId="105" priority="110">
+    <cfRule type="expression" dxfId="98" priority="110">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IT8:IX128">
-    <cfRule type="expression" dxfId="104" priority="101">
+    <cfRule type="expression" dxfId="97" priority="101">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="102">
+    <cfRule type="expression" dxfId="96" priority="102">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="95" priority="103">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="104">
+    <cfRule type="expression" dxfId="94" priority="104">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="105">
+    <cfRule type="expression" dxfId="93" priority="105">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="106">
+    <cfRule type="expression" dxfId="92" priority="106">
       <formula>IT$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="107">
+    <cfRule type="expression" dxfId="91" priority="107">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="108">
+    <cfRule type="expression" dxfId="90" priority="108">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IT205:IZ205">
-    <cfRule type="expression" dxfId="96" priority="100">
+    <cfRule type="expression" dxfId="89" priority="100">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA8:JE128">
-    <cfRule type="expression" dxfId="95" priority="91">
+    <cfRule type="expression" dxfId="88" priority="91">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92">
+    <cfRule type="expression" dxfId="87" priority="92">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="86" priority="93">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="94">
+    <cfRule type="expression" dxfId="85" priority="94">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="95">
+    <cfRule type="expression" dxfId="84" priority="95">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
+    <cfRule type="expression" dxfId="83" priority="96">
       <formula>JA$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="97">
+    <cfRule type="expression" dxfId="82" priority="97">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="98">
+    <cfRule type="expression" dxfId="81" priority="98">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA205:JG205">
-    <cfRule type="expression" dxfId="87" priority="90">
+    <cfRule type="expression" dxfId="80" priority="90">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JH8:JL128">
-    <cfRule type="expression" dxfId="86" priority="81">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="82">
+    <cfRule type="expression" dxfId="78" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="83">
+    <cfRule type="expression" dxfId="77" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="76" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="85">
+    <cfRule type="expression" dxfId="75" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="86">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>JH$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="87">
+    <cfRule type="expression" dxfId="73" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="88">
+    <cfRule type="expression" dxfId="72" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JH205:JN205">
-    <cfRule type="expression" dxfId="78" priority="80">
+    <cfRule type="expression" dxfId="71" priority="80">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO8:JS128">
-    <cfRule type="expression" dxfId="77" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="69" priority="72">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="73">
+    <cfRule type="expression" dxfId="68" priority="73">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="74">
+    <cfRule type="expression" dxfId="67" priority="74">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
+    <cfRule type="expression" dxfId="66" priority="75">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="76">
+    <cfRule type="expression" dxfId="65" priority="76">
       <formula>JO$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="77">
+    <cfRule type="expression" dxfId="64" priority="77">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="78">
+    <cfRule type="expression" dxfId="63" priority="78">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO205:JU205">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="62" priority="70">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV8:JZ128">
-    <cfRule type="expression" dxfId="68" priority="61">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="64">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66">
+    <cfRule type="expression" dxfId="56" priority="66">
       <formula>JV$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="67">
+    <cfRule type="expression" dxfId="55" priority="67">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68">
+    <cfRule type="expression" dxfId="54" priority="68">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV205:KB205">
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="53" priority="60">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KC8:KG128">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="52" priority="51">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="50" priority="53">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="48" priority="55">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>KC$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="46" priority="57">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="45" priority="58">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KC205:KI205">
-    <cfRule type="expression" dxfId="51" priority="50">
+    <cfRule type="expression" dxfId="44" priority="50">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ8:KN128">
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="42">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="43">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="44">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="38" priority="46">
       <formula>KJ$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48">
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ205:KP205">
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KQ8:KU128">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>KQ$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KQ205:KW205">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KX8:LB128">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>KX$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KX205:LD205">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE8:LI128">
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>LE$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE205:LK205">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IK167:IL167">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>IK$7=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28688,1394 +28393,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AO238"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="46" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="66.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="40" width="9" style="36"/>
-    <col min="41" max="41" width="9" style="35" hidden="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:41" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33">
-        <v>41563</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO5" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33">
-        <v>41690</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="AO6" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33">
-        <v>41705</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO7" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
-        <v>4</v>
-      </c>
-      <c r="B8" s="33">
-        <v>41705</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33">
-        <v>41724</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33">
-        <v>41738</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>7</v>
-      </c>
-      <c r="B11" s="33">
-        <v>41751</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>8</v>
-      </c>
-      <c r="B12" s="33">
-        <v>41795</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
-        <v>9</v>
-      </c>
-      <c r="B13" s="33">
-        <v>41810</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>10</v>
-      </c>
-      <c r="B14" s="65">
-        <v>41815</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>13</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="36">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="36">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="36">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="36">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="36">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="36">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="36">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="36">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="36">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="36">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="36">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="36">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="36">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="36">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="36">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="36">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="36">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="36">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="36">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="36">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="36">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="36">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="36">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="36">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="36">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="36">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="36">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="36">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="36">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="36">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="36">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="36">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="36">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="36">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="36">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="36">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="36">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="36">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="36">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="36">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="36">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="36">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="36">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="36">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="36">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="36">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="36">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="36">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="36">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="36">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="36">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="36">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="36">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="36">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="36">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="36">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="36">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="36">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="36">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="36">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="36">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="36">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="36">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="36">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="36">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="36">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="36">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="36">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="36">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="36">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="36">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="36">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="36">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="36">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="36">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="36">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="36">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="36">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="36">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="36">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="36">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="36">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="36">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="36">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="36">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="36">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E16 E18:E619">
-      <formula1>$AO$4:$AO$7</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
